--- a/uploads/Planilha_Online_KITS.xlsx
+++ b/uploads/Planilha_Online_KITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Helton Cardoso\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B08CAF-9869-4006-A28B-26AEE50D257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1577A9A3-D66E-431F-A57A-45D7C8FD1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="434">
   <si>
     <t>EAN</t>
   </si>
@@ -6401,12 +6401,6 @@
   </si>
   <si>
     <t>7908816371716/7908816371730/7908816371761/7908816371594/7908816371594/7908816371587/7908816371624/7908816359448/7908816359448/7908816352685/7908816352685/7908816371679/7908816371655</t>
-  </si>
-  <si>
-    <t>FRETE</t>
-  </si>
-  <si>
-    <t>COMPLEMENTO</t>
   </si>
 </sst>
 </file>
@@ -6766,10 +6760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275A5473-6FCF-44AA-86DD-3A44C4A5954D}">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6781,17 +6775,16 @@
     <col min="9" max="9" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="25" width="18.5703125" style="2"/>
     <col min="26" max="26" width="73.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="73.5703125" style="2" customWidth="1"/>
-    <col min="28" max="36" width="18.5703125" style="2"/>
-    <col min="37" max="37" width="26.42578125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="25.7109375" style="2" customWidth="1"/>
-    <col min="39" max="39" width="26.140625" style="2" customWidth="1"/>
-    <col min="40" max="40" width="25" style="2" customWidth="1"/>
-    <col min="41" max="41" width="182.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="18.5703125" style="2"/>
+    <col min="27" max="34" width="18.5703125" style="2"/>
+    <col min="35" max="35" width="26.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="26.140625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="25" style="2" customWidth="1"/>
+    <col min="39" max="39" width="182.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6871,52 +6864,46 @@
         <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>434</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7908816371563</v>
       </c>
@@ -6992,47 +6979,44 @@
       <c r="Z2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="2">
+      <c r="AA2" s="2">
         <v>15</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="AC2" s="2">
+        <v>264</v>
+      </c>
       <c r="AD2" s="2">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="AE2" s="2">
-        <v>108</v>
+        <v>5.4</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>113.4</v>
       </c>
       <c r="AG2" s="2">
-        <v>5.4</v>
+        <v>347</v>
       </c>
       <c r="AH2" s="2">
-        <v>113.4</v>
+        <v>218.9</v>
       </c>
       <c r="AI2" s="2">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="AJ2" s="2">
-        <v>218.9</v>
+        <v>110</v>
       </c>
       <c r="AK2" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL2" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7908816371570</v>
       </c>
@@ -7108,47 +7092,44 @@
       <c r="Z3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="2">
+      <c r="AA3" s="2">
         <v>15</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="AC3" s="2">
+        <v>264</v>
+      </c>
       <c r="AD3" s="2">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="AE3" s="2">
-        <v>108</v>
+        <v>5.4</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>113.4</v>
       </c>
       <c r="AG3" s="2">
-        <v>5.4</v>
+        <v>347</v>
       </c>
       <c r="AH3" s="2">
-        <v>113.4</v>
+        <v>218.9</v>
       </c>
       <c r="AI3" s="2">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="AJ3" s="2">
-        <v>218.9</v>
+        <v>110</v>
       </c>
       <c r="AK3" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL3" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7908816371587</v>
       </c>
@@ -7224,47 +7205,44 @@
       <c r="Z4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="2">
+      <c r="AA4" s="2">
         <v>15</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="AC4" s="2">
+        <v>264</v>
+      </c>
       <c r="AD4" s="2">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="AE4" s="2">
-        <v>219</v>
+        <v>10.95</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>229.95</v>
       </c>
       <c r="AG4" s="2">
-        <v>10.95</v>
+        <v>703.65</v>
       </c>
       <c r="AH4" s="2">
-        <v>229.95</v>
+        <v>442.9</v>
       </c>
       <c r="AI4" s="2">
-        <v>703.65</v>
+        <v>427</v>
       </c>
       <c r="AJ4" s="2">
-        <v>442.9</v>
+        <v>110</v>
       </c>
       <c r="AK4" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL4" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7908816371594</v>
       </c>
@@ -7340,47 +7318,44 @@
       <c r="Z5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="2">
+      <c r="AA5" s="2">
         <v>15</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="AC5" s="2">
+        <v>264</v>
+      </c>
       <c r="AD5" s="2">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AE5" s="2">
-        <v>149</v>
+        <v>7.45</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>156.44999999999999</v>
       </c>
       <c r="AG5" s="2">
-        <v>7.45</v>
+        <v>478.74</v>
       </c>
       <c r="AH5" s="2">
-        <v>156.44999999999999</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="AI5" s="2">
-        <v>478.74</v>
+        <v>427</v>
       </c>
       <c r="AJ5" s="2">
-        <v>301.89999999999998</v>
+        <v>110</v>
       </c>
       <c r="AK5" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL5" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7908816371600</v>
       </c>
@@ -7456,47 +7431,44 @@
       <c r="Z6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB6" s="2">
+      <c r="AA6" s="2">
         <v>15</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="AC6" s="2">
+        <v>264</v>
+      </c>
       <c r="AD6" s="2">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="2">
-        <v>149</v>
+        <v>7.45</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>156.44999999999999</v>
       </c>
       <c r="AG6" s="2">
-        <v>7.45</v>
+        <v>478.74</v>
       </c>
       <c r="AH6" s="2">
-        <v>156.44999999999999</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="AI6" s="2">
-        <v>478.74</v>
+        <v>427</v>
       </c>
       <c r="AJ6" s="2">
-        <v>301.89999999999998</v>
+        <v>110</v>
       </c>
       <c r="AK6" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL6" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7908816371617</v>
       </c>
@@ -7572,47 +7544,44 @@
       <c r="Z7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AA7" s="2">
         <v>15</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="AC7" s="2">
+        <v>264</v>
+      </c>
       <c r="AD7" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="AE7" s="2">
-        <v>289</v>
+        <v>14.45</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>303.45</v>
       </c>
       <c r="AG7" s="2">
-        <v>14.45</v>
+        <v>928.56</v>
       </c>
       <c r="AH7" s="2">
-        <v>303.45</v>
+        <v>584.9</v>
       </c>
       <c r="AI7" s="2">
-        <v>928.56</v>
+        <v>427</v>
       </c>
       <c r="AJ7" s="2">
-        <v>584.9</v>
+        <v>110</v>
       </c>
       <c r="AK7" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL7" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7908816371624</v>
       </c>
@@ -7673,47 +7642,44 @@
       <c r="Z8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AA8" s="2">
         <v>15</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="AC8" s="2">
+        <v>264</v>
+      </c>
       <c r="AD8" s="2">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="AE8" s="2">
-        <v>133</v>
+        <v>6.65</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>139.65</v>
       </c>
       <c r="AG8" s="2">
-        <v>6.65</v>
+        <v>427.33</v>
       </c>
       <c r="AH8" s="2">
-        <v>139.65</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="AI8" s="2">
-        <v>427.33</v>
+        <v>427</v>
       </c>
       <c r="AJ8" s="2">
-        <v>268.89999999999998</v>
+        <v>110</v>
       </c>
       <c r="AK8" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL8" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7908816371631</v>
       </c>
@@ -7774,47 +7740,44 @@
       <c r="Z9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB9" s="2">
+      <c r="AA9" s="2">
         <v>15</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="AC9" s="2">
+        <v>264</v>
+      </c>
       <c r="AD9" s="2">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="AE9" s="2">
-        <v>133</v>
+        <v>6.65</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>139.65</v>
       </c>
       <c r="AG9" s="2">
-        <v>6.65</v>
+        <v>427.33</v>
       </c>
       <c r="AH9" s="2">
-        <v>139.65</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="AI9" s="2">
-        <v>427.33</v>
+        <v>427</v>
       </c>
       <c r="AJ9" s="2">
-        <v>268.89999999999998</v>
+        <v>110</v>
       </c>
       <c r="AK9" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="AL9" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7908816371648</v>
       </c>
@@ -7875,47 +7838,44 @@
       <c r="Z10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB10" s="2">
+      <c r="AA10" s="2">
         <v>15</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="AC10" s="2">
+        <v>264</v>
+      </c>
       <c r="AD10" s="2">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="AE10" s="2">
-        <v>158</v>
+        <v>7.9</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>165.9</v>
       </c>
       <c r="AG10" s="2">
-        <v>7.9</v>
+        <v>507.65</v>
       </c>
       <c r="AH10" s="2">
-        <v>165.9</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="AI10" s="2">
-        <v>507.65</v>
+        <v>419</v>
       </c>
       <c r="AJ10" s="2">
-        <v>319.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK10" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL10" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7908816371655</v>
       </c>
@@ -7976,47 +7936,44 @@
       <c r="Z11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB11" s="2">
+      <c r="AA11" s="2">
         <v>15</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="AC11" s="2">
+        <v>264</v>
+      </c>
       <c r="AD11" s="2">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="AE11" s="2">
-        <v>158</v>
+        <v>7.9</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>165.9</v>
       </c>
       <c r="AG11" s="2">
-        <v>7.9</v>
+        <v>507.65</v>
       </c>
       <c r="AH11" s="2">
-        <v>165.9</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="AI11" s="2">
-        <v>507.65</v>
+        <v>419</v>
       </c>
       <c r="AJ11" s="2">
-        <v>319.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK11" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL11" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7908816371662</v>
       </c>
@@ -8092,47 +8049,44 @@
       <c r="Z12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB12" s="2">
+      <c r="AA12" s="2">
         <v>15</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="AC12" s="2">
+        <v>264</v>
+      </c>
       <c r="AD12" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="AE12" s="2">
-        <v>179</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>187.95</v>
       </c>
       <c r="AG12" s="2">
-        <v>8.9499999999999993</v>
+        <v>575.13</v>
       </c>
       <c r="AH12" s="2">
-        <v>187.95</v>
+        <v>361.9</v>
       </c>
       <c r="AI12" s="2">
-        <v>575.13</v>
+        <v>419</v>
       </c>
       <c r="AJ12" s="2">
-        <v>361.9</v>
+        <v>108</v>
       </c>
       <c r="AK12" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL12" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7908816371679</v>
       </c>
@@ -8208,47 +8162,44 @@
       <c r="Z13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB13" s="2">
+      <c r="AA13" s="2">
         <v>15</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="AC13" s="2">
+        <v>264</v>
+      </c>
       <c r="AD13" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="AE13" s="2">
-        <v>179</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>187.95</v>
       </c>
       <c r="AG13" s="2">
-        <v>8.9499999999999993</v>
+        <v>575.13</v>
       </c>
       <c r="AH13" s="2">
-        <v>187.95</v>
+        <v>361.9</v>
       </c>
       <c r="AI13" s="2">
-        <v>575.13</v>
+        <v>419</v>
       </c>
       <c r="AJ13" s="2">
-        <v>361.9</v>
+        <v>108</v>
       </c>
       <c r="AK13" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL13" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7908816371686</v>
       </c>
@@ -8324,47 +8275,44 @@
       <c r="Z14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>264</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>244</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>256.2</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>783.97</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>493.9</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ14" s="2">
         <v>107</v>
       </c>
-      <c r="AB14" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>264</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>256.2</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>783.97</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>493.9</v>
-      </c>
       <c r="AK14" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL14" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7908816371693</v>
       </c>
@@ -8440,47 +8388,44 @@
       <c r="Z15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB15" s="2">
+      <c r="AA15" s="2">
         <v>15</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="AC15" s="2">
+        <v>264</v>
+      </c>
       <c r="AD15" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="AE15" s="2">
-        <v>244</v>
+        <v>12.2</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>256.2</v>
       </c>
       <c r="AG15" s="2">
-        <v>12.2</v>
+        <v>783.97</v>
       </c>
       <c r="AH15" s="2">
-        <v>256.2</v>
+        <v>493.9</v>
       </c>
       <c r="AI15" s="2">
-        <v>783.97</v>
+        <v>425</v>
       </c>
       <c r="AJ15" s="2">
-        <v>493.9</v>
+        <v>107</v>
       </c>
       <c r="AK15" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL15" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7908816371709</v>
       </c>
@@ -8556,47 +8501,44 @@
       <c r="Z16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="AA16" s="2">
         <v>15</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="AC16" s="2">
+        <v>264</v>
+      </c>
       <c r="AD16" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="AE16" s="2">
-        <v>244</v>
+        <v>12.2</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>256.2</v>
       </c>
       <c r="AG16" s="2">
-        <v>12.2</v>
+        <v>783.97</v>
       </c>
       <c r="AH16" s="2">
-        <v>256.2</v>
+        <v>493.9</v>
       </c>
       <c r="AI16" s="2">
-        <v>783.97</v>
+        <v>425</v>
       </c>
       <c r="AJ16" s="2">
-        <v>493.9</v>
+        <v>107</v>
       </c>
       <c r="AK16" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL16" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7908816371716</v>
       </c>
@@ -8672,47 +8614,44 @@
       <c r="Z17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB17" s="2">
+      <c r="AA17" s="2">
         <v>15</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="AC17" s="2">
+        <v>264</v>
+      </c>
       <c r="AD17" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="AE17" s="2">
-        <v>282</v>
+        <v>14.1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>296.10000000000002</v>
       </c>
       <c r="AG17" s="2">
-        <v>14.1</v>
+        <v>906.07</v>
       </c>
       <c r="AH17" s="2">
-        <v>296.10000000000002</v>
+        <v>570.9</v>
       </c>
       <c r="AI17" s="2">
-        <v>906.07</v>
+        <v>425</v>
       </c>
       <c r="AJ17" s="2">
-        <v>570.9</v>
+        <v>107</v>
       </c>
       <c r="AK17" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL17" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7908816371723</v>
       </c>
@@ -8788,47 +8727,44 @@
       <c r="Z18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="AA18" s="2">
         <v>15</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="AC18" s="2">
+        <v>264</v>
+      </c>
       <c r="AD18" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AE18" s="2">
-        <v>296</v>
+        <v>14.8</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>310.8</v>
       </c>
       <c r="AG18" s="2">
-        <v>14.8</v>
+        <v>951.05</v>
       </c>
       <c r="AH18" s="2">
-        <v>310.8</v>
+        <v>598.9</v>
       </c>
       <c r="AI18" s="2">
-        <v>951.05</v>
+        <v>425</v>
       </c>
       <c r="AJ18" s="2">
-        <v>598.9</v>
+        <v>107</v>
       </c>
       <c r="AK18" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL18" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7908816371730</v>
       </c>
@@ -8904,47 +8840,44 @@
       <c r="Z19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AA19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB19" s="2">
+      <c r="AA19" s="2">
         <v>15</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="AC19" s="2">
+        <v>264</v>
+      </c>
       <c r="AD19" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AE19" s="2">
-        <v>296</v>
+        <v>14.8</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>310.8</v>
       </c>
       <c r="AG19" s="2">
-        <v>14.8</v>
+        <v>951.05</v>
       </c>
       <c r="AH19" s="2">
-        <v>310.8</v>
+        <v>598.9</v>
       </c>
       <c r="AI19" s="2">
-        <v>951.05</v>
+        <v>425</v>
       </c>
       <c r="AJ19" s="2">
-        <v>598.9</v>
+        <v>107</v>
       </c>
       <c r="AK19" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL19" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7908816371747</v>
       </c>
@@ -9020,47 +8953,44 @@
       <c r="Z20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB20" s="2">
+      <c r="AA20" s="2">
         <v>15</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="AC20" s="2">
+        <v>264</v>
+      </c>
       <c r="AD20" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AE20" s="2">
-        <v>296</v>
+        <v>14.8</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>310.8</v>
       </c>
       <c r="AG20" s="2">
-        <v>14.8</v>
+        <v>951.05</v>
       </c>
       <c r="AH20" s="2">
-        <v>310.8</v>
+        <v>598.9</v>
       </c>
       <c r="AI20" s="2">
-        <v>951.05</v>
+        <v>425</v>
       </c>
       <c r="AJ20" s="2">
-        <v>598.9</v>
+        <v>107</v>
       </c>
       <c r="AK20" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL20" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>7908816371754</v>
       </c>
@@ -9136,47 +9066,44 @@
       <c r="Z21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB21" s="2">
+      <c r="AA21" s="2">
         <v>15</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="AC21" s="2">
+        <v>264</v>
+      </c>
       <c r="AD21" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AE21" s="2">
-        <v>399</v>
+        <v>19.95</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>418.95</v>
       </c>
       <c r="AG21" s="2">
-        <v>19.95</v>
+        <v>1281.99</v>
       </c>
       <c r="AH21" s="2">
-        <v>418.95</v>
+        <v>807.9</v>
       </c>
       <c r="AI21" s="2">
-        <v>1281.99</v>
+        <v>425</v>
       </c>
       <c r="AJ21" s="2">
-        <v>807.9</v>
+        <v>107</v>
       </c>
       <c r="AK21" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL21" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7908816371761</v>
       </c>
@@ -9252,47 +9179,44 @@
       <c r="Z22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AA22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB22" s="2">
+      <c r="AA22" s="2">
         <v>15</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="AC22" s="2">
+        <v>264</v>
+      </c>
       <c r="AD22" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AE22" s="2">
-        <v>399</v>
+        <v>19.95</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>418.95</v>
       </c>
       <c r="AG22" s="2">
-        <v>19.95</v>
+        <v>1281.99</v>
       </c>
       <c r="AH22" s="2">
-        <v>418.95</v>
+        <v>807.9</v>
       </c>
       <c r="AI22" s="2">
-        <v>1281.99</v>
+        <v>425</v>
       </c>
       <c r="AJ22" s="2">
-        <v>807.9</v>
+        <v>107</v>
       </c>
       <c r="AK22" s="2">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="AL22" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>7908816371778</v>
       </c>
@@ -9365,50 +9289,47 @@
       <c r="Z23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB23" s="2">
+      <c r="AA23" s="2">
         <v>15</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="AC23" s="2">
+        <v>264</v>
+      </c>
       <c r="AD23" s="2">
-        <v>264</v>
+        <v>977</v>
       </c>
       <c r="AE23" s="2">
-        <v>977</v>
+        <v>48.85</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>1025.8499999999999</v>
       </c>
       <c r="AG23" s="2">
-        <v>48.85</v>
+        <v>3139.1</v>
       </c>
       <c r="AH23" s="2">
-        <v>1025.8499999999999</v>
+        <v>1977.9</v>
       </c>
       <c r="AI23" s="2">
-        <v>3139.1</v>
+        <v>374</v>
       </c>
       <c r="AJ23" s="2">
-        <v>1977.9</v>
+        <v>106</v>
       </c>
       <c r="AK23" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM23" s="2">
         <v>176</v>
       </c>
-      <c r="AN23" s="2" t="s">
+      <c r="AL23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AO23" s="2" t="s">
+      <c r="AM23" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7908816371785</v>
       </c>
@@ -9481,50 +9402,47 @@
       <c r="Z24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AA24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AA24" s="2">
         <v>15</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="AC24" s="2">
+        <v>264</v>
+      </c>
       <c r="AD24" s="2">
-        <v>264</v>
+        <v>977</v>
       </c>
       <c r="AE24" s="2">
-        <v>977</v>
+        <v>48.85</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>1025.8499999999999</v>
       </c>
       <c r="AG24" s="2">
-        <v>48.85</v>
+        <v>3139.1</v>
       </c>
       <c r="AH24" s="2">
-        <v>1025.8499999999999</v>
+        <v>1977.9</v>
       </c>
       <c r="AI24" s="2">
-        <v>3139.1</v>
+        <v>374</v>
       </c>
       <c r="AJ24" s="2">
-        <v>1977.9</v>
+        <v>106</v>
       </c>
       <c r="AK24" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM24" s="2">
         <v>176</v>
       </c>
-      <c r="AN24" s="2" t="s">
+      <c r="AL24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AO24" s="2" t="s">
+      <c r="AM24" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>7908816371792</v>
       </c>
@@ -9597,50 +9515,47 @@
       <c r="Z25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AA25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB25" s="2">
+      <c r="AA25" s="2">
         <v>15</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AB25" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="AC25" s="2">
+        <v>264</v>
+      </c>
       <c r="AD25" s="2">
-        <v>264</v>
+        <v>977</v>
       </c>
       <c r="AE25" s="2">
-        <v>977</v>
+        <v>48.85</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>1025.8499999999999</v>
       </c>
       <c r="AG25" s="2">
-        <v>48.85</v>
+        <v>3139.1</v>
       </c>
       <c r="AH25" s="2">
-        <v>1025.8499999999999</v>
+        <v>1977.9</v>
       </c>
       <c r="AI25" s="2">
-        <v>3139.1</v>
+        <v>374</v>
       </c>
       <c r="AJ25" s="2">
-        <v>1977.9</v>
+        <v>106</v>
       </c>
       <c r="AK25" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM25" s="2">
         <v>176</v>
       </c>
-      <c r="AN25" s="2" t="s">
+      <c r="AL25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AO25" s="2" t="s">
+      <c r="AM25" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>7908816371808</v>
       </c>
@@ -9713,50 +9628,47 @@
       <c r="Z26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AA26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB26" s="2">
+      <c r="AA26" s="2">
         <v>15</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AB26" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="AC26" s="2">
+        <v>264</v>
+      </c>
       <c r="AD26" s="2">
-        <v>264</v>
+        <v>1167</v>
       </c>
       <c r="AE26" s="2">
-        <v>1167</v>
+        <v>58.35</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>1225.3499999999999</v>
       </c>
       <c r="AG26" s="2">
-        <v>58.35</v>
+        <v>3749.57</v>
       </c>
       <c r="AH26" s="2">
-        <v>1225.3499999999999</v>
+        <v>2361.9</v>
       </c>
       <c r="AI26" s="2">
-        <v>3749.57</v>
+        <v>374</v>
       </c>
       <c r="AJ26" s="2">
-        <v>2361.9</v>
+        <v>106</v>
       </c>
       <c r="AK26" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM26" s="2">
         <v>176</v>
       </c>
-      <c r="AN26" s="2" t="s">
+      <c r="AL26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AO26" s="2" t="s">
+      <c r="AM26" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7908816371815</v>
       </c>
@@ -9829,50 +9741,47 @@
       <c r="Z27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA27" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB27" s="2">
+      <c r="AA27" s="2">
         <v>15</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AB27" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="AC27" s="2">
+        <v>264</v>
+      </c>
       <c r="AD27" s="2">
-        <v>264</v>
+        <v>1012</v>
       </c>
       <c r="AE27" s="2">
-        <v>1012</v>
+        <v>50.6</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>1062.5999999999999</v>
       </c>
       <c r="AG27" s="2">
-        <v>50.6</v>
+        <v>3251.56</v>
       </c>
       <c r="AH27" s="2">
-        <v>1062.5999999999999</v>
+        <v>2047.9</v>
       </c>
       <c r="AI27" s="2">
-        <v>3251.56</v>
+        <v>374</v>
       </c>
       <c r="AJ27" s="2">
-        <v>2047.9</v>
+        <v>106</v>
       </c>
       <c r="AK27" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM27" s="2">
         <v>176</v>
       </c>
-      <c r="AN27" s="2" t="s">
+      <c r="AL27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AO27" s="2" t="s">
+      <c r="AM27" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7908816371822</v>
       </c>
@@ -9945,50 +9854,47 @@
       <c r="Z28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AA28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="AA28" s="2">
         <v>15</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="AC28" s="2">
+        <v>264</v>
+      </c>
       <c r="AD28" s="2">
-        <v>264</v>
+        <v>2552</v>
       </c>
       <c r="AE28" s="2">
-        <v>2552</v>
+        <v>127.6</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>2679.6</v>
       </c>
       <c r="AG28" s="2">
-        <v>127.6</v>
+        <v>8199.58</v>
       </c>
       <c r="AH28" s="2">
-        <v>2679.6</v>
+        <v>5165.8999999999996</v>
       </c>
       <c r="AI28" s="2">
-        <v>8199.58</v>
+        <v>374</v>
       </c>
       <c r="AJ28" s="2">
-        <v>5165.8999999999996</v>
+        <v>106</v>
       </c>
       <c r="AK28" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM28" s="2">
         <v>176</v>
       </c>
-      <c r="AN28" s="2" t="s">
+      <c r="AL28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AO28" s="2" t="s">
+      <c r="AM28" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7908816371839</v>
       </c>
@@ -10049,47 +9955,44 @@
       <c r="Z29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB29" s="2">
+      <c r="AA29" s="2">
         <v>25</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AB29" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="AC29" s="2">
+        <v>264</v>
+      </c>
       <c r="AD29" s="2">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AE29" s="2">
-        <v>149</v>
+        <v>7.45</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>156.44999999999999</v>
       </c>
       <c r="AG29" s="2">
-        <v>7.45</v>
+        <v>478.74</v>
       </c>
       <c r="AH29" s="2">
-        <v>156.44999999999999</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="AI29" s="2">
-        <v>478.74</v>
+        <v>419</v>
       </c>
       <c r="AJ29" s="2">
-        <v>301.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK29" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL29" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>7908816371846</v>
       </c>
@@ -10150,47 +10053,44 @@
       <c r="Z30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AA30" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB30" s="2">
+      <c r="AA30" s="2">
         <v>25</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AB30" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="AC30" s="2">
+        <v>264</v>
+      </c>
       <c r="AD30" s="2">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AE30" s="2">
-        <v>149</v>
+        <v>7.45</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>156.44999999999999</v>
       </c>
       <c r="AG30" s="2">
-        <v>7.45</v>
+        <v>478.74</v>
       </c>
       <c r="AH30" s="2">
-        <v>156.44999999999999</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="AI30" s="2">
-        <v>478.74</v>
+        <v>419</v>
       </c>
       <c r="AJ30" s="2">
-        <v>301.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK30" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL30" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7908816371853</v>
       </c>
@@ -10251,47 +10151,44 @@
       <c r="Z31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AA31" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB31" s="2">
+      <c r="AA31" s="2">
         <v>25</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AB31" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="AC31" s="2">
+        <v>264</v>
+      </c>
       <c r="AD31" s="2">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AE31" s="2">
-        <v>149</v>
+        <v>7.45</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>156.44999999999999</v>
       </c>
       <c r="AG31" s="2">
-        <v>7.45</v>
+        <v>478.74</v>
       </c>
       <c r="AH31" s="2">
-        <v>156.44999999999999</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="AI31" s="2">
-        <v>478.74</v>
+        <v>419</v>
       </c>
       <c r="AJ31" s="2">
-        <v>301.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK31" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL31" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7908816371860</v>
       </c>
@@ -10367,47 +10264,44 @@
       <c r="Z32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AA32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB32" s="2">
+      <c r="AA32" s="2">
         <v>25</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AB32" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="AC32" s="2">
+        <v>264</v>
+      </c>
       <c r="AD32" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AE32" s="2">
-        <v>325</v>
+        <v>16.25</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>341.25</v>
       </c>
       <c r="AG32" s="2">
-        <v>16.25</v>
+        <v>1044.23</v>
       </c>
       <c r="AH32" s="2">
-        <v>341.25</v>
+        <v>657.9</v>
       </c>
       <c r="AI32" s="2">
-        <v>1044.23</v>
+        <v>374</v>
       </c>
       <c r="AJ32" s="2">
-        <v>657.9</v>
+        <v>40</v>
       </c>
       <c r="AK32" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL32" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7908816371877</v>
       </c>
@@ -10483,47 +10377,44 @@
       <c r="Z33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AA33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB33" s="2">
+      <c r="AA33" s="2">
         <v>25</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AB33" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="AC33" s="2">
+        <v>264</v>
+      </c>
       <c r="AD33" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AE33" s="2">
-        <v>325</v>
+        <v>16.25</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>341.25</v>
       </c>
       <c r="AG33" s="2">
-        <v>16.25</v>
+        <v>1044.23</v>
       </c>
       <c r="AH33" s="2">
-        <v>341.25</v>
+        <v>657.9</v>
       </c>
       <c r="AI33" s="2">
-        <v>1044.23</v>
+        <v>374</v>
       </c>
       <c r="AJ33" s="2">
-        <v>657.9</v>
+        <v>40</v>
       </c>
       <c r="AK33" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL33" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>7908816371884</v>
       </c>
@@ -10599,47 +10490,44 @@
       <c r="Z34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AA34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB34" s="2">
+      <c r="AA34" s="2">
         <v>25</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AB34" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="AC34" s="2">
+        <v>264</v>
+      </c>
       <c r="AD34" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AE34" s="2">
-        <v>325</v>
+        <v>16.25</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>341.25</v>
       </c>
       <c r="AG34" s="2">
-        <v>16.25</v>
+        <v>1044.23</v>
       </c>
       <c r="AH34" s="2">
-        <v>341.25</v>
+        <v>657.9</v>
       </c>
       <c r="AI34" s="2">
-        <v>1044.23</v>
+        <v>374</v>
       </c>
       <c r="AJ34" s="2">
-        <v>657.9</v>
+        <v>40</v>
       </c>
       <c r="AK34" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL34" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7908816371891</v>
       </c>
@@ -10712,50 +10600,47 @@
       <c r="Z35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AA35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB35" s="2">
+      <c r="AA35" s="2">
         <v>25</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AB35" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="AC35" s="2">
+        <v>264</v>
+      </c>
       <c r="AD35" s="2">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="AE35" s="2">
-        <v>474</v>
+        <v>23.7</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>497.7</v>
       </c>
       <c r="AG35" s="2">
-        <v>23.7</v>
+        <v>1522.96</v>
       </c>
       <c r="AH35" s="2">
-        <v>497.7</v>
+        <v>958.9</v>
       </c>
       <c r="AI35" s="2">
-        <v>1522.96</v>
+        <v>374</v>
       </c>
       <c r="AJ35" s="2">
-        <v>958.9</v>
+        <v>40</v>
       </c>
       <c r="AK35" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL35" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN35" s="2">
         <v>1</v>
       </c>
-      <c r="AO35" s="2" t="s">
+      <c r="AM35" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>7908816371907</v>
       </c>
@@ -10828,50 +10713,47 @@
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AA36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB36" s="2">
+      <c r="AA36" s="2">
         <v>25</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AB36" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="AC36" s="2">
+        <v>264</v>
+      </c>
       <c r="AD36" s="2">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="AE36" s="2">
-        <v>474</v>
+        <v>23.7</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>497.7</v>
       </c>
       <c r="AG36" s="2">
-        <v>23.7</v>
+        <v>1522.96</v>
       </c>
       <c r="AH36" s="2">
-        <v>497.7</v>
+        <v>958.9</v>
       </c>
       <c r="AI36" s="2">
-        <v>1522.96</v>
+        <v>374</v>
       </c>
       <c r="AJ36" s="2">
-        <v>958.9</v>
+        <v>40</v>
       </c>
       <c r="AK36" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL36" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN36" s="2">
         <v>1</v>
       </c>
-      <c r="AO36" s="2" t="s">
+      <c r="AM36" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>7908816371914</v>
       </c>
@@ -10944,50 +10826,47 @@
       <c r="Z37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AA37" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB37" s="2">
+      <c r="AA37" s="2">
         <v>25</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AB37" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="AC37" s="2">
+        <v>264</v>
+      </c>
       <c r="AD37" s="2">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="AE37" s="2">
-        <v>474</v>
+        <v>23.7</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>497.7</v>
       </c>
       <c r="AG37" s="2">
-        <v>23.7</v>
+        <v>1522.96</v>
       </c>
       <c r="AH37" s="2">
-        <v>497.7</v>
+        <v>958.9</v>
       </c>
       <c r="AI37" s="2">
-        <v>1522.96</v>
+        <v>374</v>
       </c>
       <c r="AJ37" s="2">
-        <v>958.9</v>
+        <v>40</v>
       </c>
       <c r="AK37" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL37" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN37" s="2">
         <v>1</v>
       </c>
-      <c r="AO37" s="2" t="s">
+      <c r="AM37" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>7908816371921</v>
       </c>
@@ -11048,47 +10927,44 @@
       <c r="Z38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB38" s="2">
+      <c r="AA38" s="2">
         <v>25</v>
       </c>
-      <c r="AC38" s="2" t="s">
+      <c r="AB38" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="AC38" s="2">
+        <v>264</v>
+      </c>
       <c r="AD38" s="2">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="AE38" s="2">
-        <v>142</v>
+        <v>7.1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>149.1</v>
       </c>
       <c r="AG38" s="2">
-        <v>7.1</v>
+        <v>456.25</v>
       </c>
       <c r="AH38" s="2">
-        <v>149.1</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="AI38" s="2">
-        <v>456.25</v>
+        <v>419</v>
       </c>
       <c r="AJ38" s="2">
-        <v>286.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK38" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL38" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>7908816371938</v>
       </c>
@@ -11149,47 +11025,44 @@
       <c r="Z39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AA39" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB39" s="2">
+      <c r="AA39" s="2">
         <v>25</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="AB39" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="AC39" s="2">
+        <v>264</v>
+      </c>
       <c r="AD39" s="2">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="AE39" s="2">
-        <v>142</v>
+        <v>7.1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>149.1</v>
       </c>
       <c r="AG39" s="2">
-        <v>7.1</v>
+        <v>456.25</v>
       </c>
       <c r="AH39" s="2">
-        <v>149.1</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="AI39" s="2">
-        <v>456.25</v>
+        <v>419</v>
       </c>
       <c r="AJ39" s="2">
-        <v>286.89999999999998</v>
+        <v>108</v>
       </c>
       <c r="AK39" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL39" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7908816371945</v>
       </c>
@@ -11265,47 +11138,44 @@
       <c r="Z40" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AA40" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB40" s="2">
+      <c r="AA40" s="2">
         <v>25</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AB40" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="AC40" s="2">
+        <v>264</v>
+      </c>
       <c r="AD40" s="2">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="AE40" s="2">
-        <v>328</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>344.4</v>
       </c>
       <c r="AG40" s="2">
-        <v>16.399999999999999</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="AH40" s="2">
-        <v>344.4</v>
+        <v>663.9</v>
       </c>
       <c r="AI40" s="2">
-        <v>1053.8599999999999</v>
+        <v>374</v>
       </c>
       <c r="AJ40" s="2">
-        <v>663.9</v>
+        <v>40</v>
       </c>
       <c r="AK40" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL40" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN40" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7908816371952</v>
       </c>
@@ -11381,47 +11251,44 @@
       <c r="Z41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AA41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB41" s="2">
+      <c r="AA41" s="2">
         <v>25</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="AC41" s="2">
+        <v>264</v>
+      </c>
       <c r="AD41" s="2">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="AE41" s="2">
-        <v>328</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>344.4</v>
       </c>
       <c r="AG41" s="2">
-        <v>16.399999999999999</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="AH41" s="2">
-        <v>344.4</v>
+        <v>663.9</v>
       </c>
       <c r="AI41" s="2">
-        <v>1053.8599999999999</v>
+        <v>374</v>
       </c>
       <c r="AJ41" s="2">
-        <v>663.9</v>
+        <v>40</v>
       </c>
       <c r="AK41" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL41" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7908816371969</v>
       </c>
@@ -11494,47 +11361,44 @@
       <c r="Z42" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AA42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB42" s="2">
+      <c r="AA42" s="2">
         <v>25</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AB42" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="AC42" s="2">
+        <v>264</v>
+      </c>
       <c r="AD42" s="2">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="AE42" s="2">
-        <v>470</v>
+        <v>23.5</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>493.5</v>
       </c>
       <c r="AG42" s="2">
-        <v>23.5</v>
+        <v>1510.11</v>
       </c>
       <c r="AH42" s="2">
-        <v>493.5</v>
+        <v>950.9</v>
       </c>
       <c r="AI42" s="2">
-        <v>1510.11</v>
+        <v>374</v>
       </c>
       <c r="AJ42" s="2">
-        <v>950.9</v>
+        <v>40</v>
       </c>
       <c r="AK42" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL42" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM42" s="2">
         <v>176</v>
       </c>
-      <c r="AO42" s="2" t="s">
+      <c r="AM42" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>7908816371976</v>
       </c>
@@ -11607,47 +11471,44 @@
       <c r="Z43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AA43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB43" s="2">
+      <c r="AA43" s="2">
         <v>25</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AB43" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="AC43" s="2">
+        <v>264</v>
+      </c>
       <c r="AD43" s="2">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="AE43" s="2">
-        <v>470</v>
+        <v>23.5</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>493.5</v>
       </c>
       <c r="AG43" s="2">
-        <v>23.5</v>
+        <v>1510.11</v>
       </c>
       <c r="AH43" s="2">
-        <v>493.5</v>
+        <v>950.9</v>
       </c>
       <c r="AI43" s="2">
-        <v>1510.11</v>
+        <v>374</v>
       </c>
       <c r="AJ43" s="2">
-        <v>950.9</v>
+        <v>40</v>
       </c>
       <c r="AK43" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM43" s="2">
         <v>176</v>
       </c>
-      <c r="AO43" s="2" t="s">
+      <c r="AM43" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>7908816371983</v>
       </c>
@@ -11723,47 +11584,44 @@
       <c r="Z44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB44" s="2">
+      <c r="AA44" s="2">
         <v>25</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="AB44" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="AC44" s="2">
+        <v>264</v>
+      </c>
       <c r="AD44" s="2">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="AE44" s="2">
-        <v>356</v>
+        <v>17.8</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>373.8</v>
       </c>
       <c r="AG44" s="2">
-        <v>17.8</v>
+        <v>1143.83</v>
       </c>
       <c r="AH44" s="2">
-        <v>373.8</v>
+        <v>720.9</v>
       </c>
       <c r="AI44" s="2">
-        <v>1143.83</v>
+        <v>420</v>
       </c>
       <c r="AJ44" s="2">
-        <v>720.9</v>
+        <v>40</v>
       </c>
       <c r="AK44" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL44" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>7908816371990</v>
       </c>
@@ -11839,47 +11697,44 @@
       <c r="Z45" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AA45" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB45" s="2">
+      <c r="AA45" s="2">
         <v>25</v>
       </c>
-      <c r="AC45" s="2" t="s">
+      <c r="AB45" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="AC45" s="2">
+        <v>264</v>
+      </c>
       <c r="AD45" s="2">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="AE45" s="2">
-        <v>341</v>
+        <v>17.05</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>358.05</v>
       </c>
       <c r="AG45" s="2">
-        <v>17.05</v>
+        <v>1095.6300000000001</v>
       </c>
       <c r="AH45" s="2">
-        <v>358.05</v>
+        <v>689.9</v>
       </c>
       <c r="AI45" s="2">
-        <v>1095.6300000000001</v>
+        <v>420</v>
       </c>
       <c r="AJ45" s="2">
-        <v>689.9</v>
+        <v>40</v>
       </c>
       <c r="AK45" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL45" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>7908816372003</v>
       </c>
@@ -11955,47 +11810,44 @@
       <c r="Z46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AA46" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB46" s="2">
+      <c r="AA46" s="2">
         <v>25</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="AB46" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="AC46" s="2">
+        <v>264</v>
+      </c>
       <c r="AD46" s="2">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="AE46" s="2">
-        <v>341</v>
+        <v>17.05</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>358.05</v>
       </c>
       <c r="AG46" s="2">
-        <v>17.05</v>
+        <v>1095.6300000000001</v>
       </c>
       <c r="AH46" s="2">
-        <v>358.05</v>
+        <v>689.9</v>
       </c>
       <c r="AI46" s="2">
-        <v>1095.6300000000001</v>
+        <v>420</v>
       </c>
       <c r="AJ46" s="2">
-        <v>689.9</v>
+        <v>40</v>
       </c>
       <c r="AK46" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL46" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM46" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>7908816372010</v>
       </c>
@@ -12071,47 +11923,44 @@
       <c r="Z47" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AA47" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB47" s="2">
+      <c r="AA47" s="2">
         <v>25</v>
       </c>
-      <c r="AC47" s="2" t="s">
+      <c r="AB47" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="AC47" s="2">
+        <v>264</v>
+      </c>
       <c r="AD47" s="2">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="AE47" s="2">
-        <v>449</v>
+        <v>22.45</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>471.45</v>
       </c>
       <c r="AG47" s="2">
-        <v>22.45</v>
+        <v>1442.64</v>
       </c>
       <c r="AH47" s="2">
-        <v>471.45</v>
+        <v>908.9</v>
       </c>
       <c r="AI47" s="2">
-        <v>1442.64</v>
+        <v>420</v>
       </c>
       <c r="AJ47" s="2">
-        <v>908.9</v>
+        <v>40</v>
       </c>
       <c r="AK47" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL47" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>7908816372027</v>
       </c>
@@ -12187,47 +12036,44 @@
       <c r="Z48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AA48" s="2" t="s">
+      <c r="AA48" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC48" s="2">
         <v>264</v>
       </c>
-      <c r="AB48" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="AD48" s="2">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="AE48" s="2">
-        <v>449</v>
+        <v>22.45</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>471.45</v>
       </c>
       <c r="AG48" s="2">
-        <v>22.45</v>
+        <v>1442.64</v>
       </c>
       <c r="AH48" s="2">
-        <v>471.45</v>
+        <v>908.9</v>
       </c>
       <c r="AI48" s="2">
-        <v>1442.64</v>
+        <v>420</v>
       </c>
       <c r="AJ48" s="2">
-        <v>908.9</v>
+        <v>40</v>
       </c>
       <c r="AK48" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL48" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM48" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN48" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>7908816372034</v>
       </c>
@@ -12303,47 +12149,44 @@
       <c r="Z49" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AA49" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB49" s="2">
+      <c r="AA49" s="2">
         <v>25</v>
       </c>
-      <c r="AC49" s="2" t="s">
+      <c r="AB49" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="AC49" s="2">
+        <v>264</v>
+      </c>
       <c r="AD49" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AE49" s="2">
-        <v>288</v>
+        <v>14.4</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>302.39999999999998</v>
       </c>
       <c r="AG49" s="2">
-        <v>14.4</v>
+        <v>925.34</v>
       </c>
       <c r="AH49" s="2">
-        <v>302.39999999999998</v>
+        <v>582.9</v>
       </c>
       <c r="AI49" s="2">
-        <v>925.34</v>
+        <v>420</v>
       </c>
       <c r="AJ49" s="2">
-        <v>582.9</v>
+        <v>40</v>
       </c>
       <c r="AK49" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL49" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN49" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>7908816372041</v>
       </c>
@@ -12419,47 +12262,44 @@
       <c r="Z50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AA50" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB50" s="2">
+      <c r="AA50" s="2">
         <v>25</v>
       </c>
-      <c r="AC50" s="2" t="s">
+      <c r="AB50" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="AC50" s="2">
+        <v>264</v>
+      </c>
       <c r="AD50" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AE50" s="2">
-        <v>288</v>
+        <v>14.4</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>302.39999999999998</v>
       </c>
       <c r="AG50" s="2">
-        <v>14.4</v>
+        <v>925.34</v>
       </c>
       <c r="AH50" s="2">
-        <v>302.39999999999998</v>
+        <v>582.9</v>
       </c>
       <c r="AI50" s="2">
-        <v>925.34</v>
+        <v>420</v>
       </c>
       <c r="AJ50" s="2">
-        <v>582.9</v>
+        <v>40</v>
       </c>
       <c r="AK50" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL50" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>7908816372058</v>
       </c>
@@ -12520,47 +12360,44 @@
       <c r="Z51" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AA51" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB51" s="2">
+      <c r="AA51" s="2">
         <v>25</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AB51" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="AC51" s="2">
+        <v>264</v>
+      </c>
       <c r="AD51" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="AE51" s="2">
-        <v>236</v>
+        <v>11.8</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>247.8</v>
       </c>
       <c r="AG51" s="2">
-        <v>11.8</v>
+        <v>758.27</v>
       </c>
       <c r="AH51" s="2">
-        <v>247.8</v>
+        <v>477.9</v>
       </c>
       <c r="AI51" s="2">
-        <v>758.27</v>
+        <v>420</v>
       </c>
       <c r="AJ51" s="2">
-        <v>477.9</v>
+        <v>40</v>
       </c>
       <c r="AK51" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL51" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN51" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>7908816372065</v>
       </c>
@@ -12621,47 +12458,44 @@
       <c r="Z52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AA52" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB52" s="2">
+      <c r="AA52" s="2">
         <v>25</v>
       </c>
-      <c r="AC52" s="2" t="s">
+      <c r="AB52" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="AC52" s="2">
+        <v>264</v>
+      </c>
       <c r="AD52" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="AE52" s="2">
-        <v>236</v>
+        <v>11.8</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>247.8</v>
       </c>
       <c r="AG52" s="2">
-        <v>11.8</v>
+        <v>758.27</v>
       </c>
       <c r="AH52" s="2">
-        <v>247.8</v>
+        <v>477.9</v>
       </c>
       <c r="AI52" s="2">
-        <v>758.27</v>
+        <v>420</v>
       </c>
       <c r="AJ52" s="2">
-        <v>477.9</v>
+        <v>40</v>
       </c>
       <c r="AK52" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL52" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN52" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>7908816372072</v>
       </c>
@@ -12722,47 +12556,44 @@
       <c r="Z53" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AA53" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB53" s="2">
+      <c r="AA53" s="2">
         <v>25</v>
       </c>
-      <c r="AC53" s="2" t="s">
+      <c r="AB53" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="AC53" s="2">
+        <v>264</v>
+      </c>
       <c r="AD53" s="2">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="AE53" s="2">
-        <v>318</v>
+        <v>15.9</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>333.9</v>
       </c>
       <c r="AG53" s="2">
-        <v>15.9</v>
+        <v>1021.73</v>
       </c>
       <c r="AH53" s="2">
-        <v>333.9</v>
+        <v>643.9</v>
       </c>
       <c r="AI53" s="2">
-        <v>1021.73</v>
+        <v>420</v>
       </c>
       <c r="AJ53" s="2">
-        <v>643.9</v>
+        <v>40</v>
       </c>
       <c r="AK53" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL53" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN53" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>7908816372089</v>
       </c>
@@ -12823,47 +12654,44 @@
       <c r="Z54" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AA54" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB54" s="2">
+      <c r="AA54" s="2">
         <v>25</v>
       </c>
-      <c r="AC54" s="2" t="s">
+      <c r="AB54" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="AC54" s="2">
+        <v>264</v>
+      </c>
       <c r="AD54" s="2">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="AE54" s="2">
-        <v>318</v>
+        <v>15.9</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>333.9</v>
       </c>
       <c r="AG54" s="2">
-        <v>15.9</v>
+        <v>1021.73</v>
       </c>
       <c r="AH54" s="2">
-        <v>333.9</v>
+        <v>643.9</v>
       </c>
       <c r="AI54" s="2">
-        <v>1021.73</v>
+        <v>420</v>
       </c>
       <c r="AJ54" s="2">
-        <v>643.9</v>
+        <v>40</v>
       </c>
       <c r="AK54" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="AL54" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM54" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN54" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>7908816372096</v>
       </c>
@@ -12939,44 +12767,41 @@
       <c r="Z55" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AA55" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB55" s="2">
+      <c r="AA55" s="2">
         <v>25</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AB55" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="AC55" s="2">
+        <v>264</v>
+      </c>
       <c r="AD55" s="2">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="AE55" s="2">
-        <v>183</v>
+        <v>9.15</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>192.15</v>
       </c>
       <c r="AG55" s="2">
-        <v>9.15</v>
+        <v>587.98</v>
       </c>
       <c r="AH55" s="2">
-        <v>192.15</v>
+        <v>369.9</v>
       </c>
       <c r="AI55" s="2">
-        <v>587.98</v>
+        <v>419</v>
       </c>
       <c r="AJ55" s="2">
-        <v>369.9</v>
+        <v>108</v>
       </c>
       <c r="AK55" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL55" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM55" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>7908816372102</v>
       </c>
@@ -13052,44 +12877,41 @@
       <c r="Z56" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AA56" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB56" s="2">
+      <c r="AA56" s="2">
         <v>25</v>
       </c>
-      <c r="AC56" s="2" t="s">
+      <c r="AB56" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="AC56" s="2">
+        <v>264</v>
+      </c>
       <c r="AD56" s="2">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="AE56" s="2">
-        <v>183</v>
+        <v>9.15</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>192.15</v>
       </c>
       <c r="AG56" s="2">
-        <v>9.15</v>
+        <v>587.98</v>
       </c>
       <c r="AH56" s="2">
-        <v>192.15</v>
+        <v>369.9</v>
       </c>
       <c r="AI56" s="2">
-        <v>587.98</v>
+        <v>419</v>
       </c>
       <c r="AJ56" s="2">
-        <v>369.9</v>
+        <v>108</v>
       </c>
       <c r="AK56" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL56" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM56" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>7908816372119</v>
       </c>
@@ -13165,44 +12987,41 @@
       <c r="Z57" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA57" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB57" s="2">
+      <c r="AA57" s="2">
         <v>25</v>
       </c>
-      <c r="AC57" s="2" t="s">
+      <c r="AB57" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="AC57" s="2">
+        <v>264</v>
+      </c>
       <c r="AD57" s="2">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="AE57" s="2">
-        <v>369</v>
+        <v>18.45</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>387.45</v>
       </c>
       <c r="AG57" s="2">
-        <v>18.45</v>
+        <v>1185.5999999999999</v>
       </c>
       <c r="AH57" s="2">
-        <v>387.45</v>
+        <v>746.9</v>
       </c>
       <c r="AI57" s="2">
-        <v>1185.5999999999999</v>
+        <v>374</v>
       </c>
       <c r="AJ57" s="2">
-        <v>746.9</v>
+        <v>40</v>
       </c>
       <c r="AK57" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL57" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>7908816372126</v>
       </c>
@@ -13278,44 +13097,41 @@
       <c r="Z58" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AA58" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB58" s="2">
+      <c r="AA58" s="2">
         <v>25</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AB58" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="AC58" s="2">
+        <v>264</v>
+      </c>
       <c r="AD58" s="2">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="AE58" s="2">
-        <v>369</v>
+        <v>18.45</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>387.45</v>
       </c>
       <c r="AG58" s="2">
-        <v>18.45</v>
+        <v>1185.5999999999999</v>
       </c>
       <c r="AH58" s="2">
-        <v>387.45</v>
+        <v>746.9</v>
       </c>
       <c r="AI58" s="2">
-        <v>1185.5999999999999</v>
+        <v>374</v>
       </c>
       <c r="AJ58" s="2">
-        <v>746.9</v>
+        <v>40</v>
       </c>
       <c r="AK58" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL58" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>7908816372133</v>
       </c>
@@ -13388,47 +13204,44 @@
       <c r="Z59" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AA59" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB59" s="2">
+      <c r="AA59" s="2">
         <v>25</v>
       </c>
-      <c r="AC59" s="2" t="s">
+      <c r="AB59" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="AC59" s="2">
+        <v>264</v>
+      </c>
       <c r="AD59" s="2">
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="AE59" s="2">
-        <v>552</v>
+        <v>27.6</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>579.6</v>
       </c>
       <c r="AG59" s="2">
-        <v>27.6</v>
+        <v>1773.58</v>
       </c>
       <c r="AH59" s="2">
-        <v>579.6</v>
+        <v>1116.9000000000001</v>
       </c>
       <c r="AI59" s="2">
-        <v>1773.58</v>
+        <v>374</v>
       </c>
       <c r="AJ59" s="2">
-        <v>1116.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK59" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" s="2">
         <v>176</v>
       </c>
-      <c r="AO59" s="2" t="s">
+      <c r="AM59" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>7908816372140</v>
       </c>
@@ -13501,47 +13314,44 @@
       <c r="Z60" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AA60" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB60" s="2">
+      <c r="AA60" s="2">
         <v>25</v>
       </c>
-      <c r="AC60" s="2" t="s">
+      <c r="AB60" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="AC60" s="2">
+        <v>264</v>
+      </c>
       <c r="AD60" s="2">
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="AE60" s="2">
-        <v>552</v>
+        <v>27.6</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>579.6</v>
       </c>
       <c r="AG60" s="2">
-        <v>27.6</v>
+        <v>1773.58</v>
       </c>
       <c r="AH60" s="2">
-        <v>579.6</v>
+        <v>1116.9000000000001</v>
       </c>
       <c r="AI60" s="2">
-        <v>1773.58</v>
+        <v>374</v>
       </c>
       <c r="AJ60" s="2">
-        <v>1116.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK60" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL60" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" s="2">
         <v>176</v>
       </c>
-      <c r="AO60" s="2" t="s">
+      <c r="AM60" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>7908816372157</v>
       </c>
@@ -13596,38 +13406,35 @@
       <c r="Z61" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AA61" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB61" s="2">
+      <c r="AA61" s="2">
         <v>25</v>
       </c>
-      <c r="AC61" s="2" t="s">
+      <c r="AB61" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="AC61" s="2">
+        <v>264</v>
+      </c>
       <c r="AD61" s="2">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="AE61" s="2">
-        <v>35</v>
+        <v>1.75</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>36.75</v>
       </c>
       <c r="AG61" s="2">
-        <v>1.75</v>
+        <v>112.46</v>
       </c>
       <c r="AH61" s="2">
-        <v>36.75</v>
-      </c>
-      <c r="AI61" s="2">
-        <v>112.46</v>
-      </c>
-      <c r="AJ61" s="2">
         <v>70.900000000000006</v>
       </c>
-      <c r="AN61" s="2">
+      <c r="AL61" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7908816372164</v>
       </c>
@@ -13703,47 +13510,44 @@
       <c r="Z62" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AA62" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB62" s="2">
+      <c r="AA62" s="2">
         <v>25</v>
       </c>
-      <c r="AC62" s="2" t="s">
+      <c r="AB62" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="AC62" s="2">
+        <v>264</v>
+      </c>
       <c r="AD62" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="AE62" s="2">
-        <v>179</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>187.95</v>
       </c>
       <c r="AG62" s="2">
-        <v>8.9499999999999993</v>
+        <v>575.13</v>
       </c>
       <c r="AH62" s="2">
-        <v>187.95</v>
+        <v>361.9</v>
       </c>
       <c r="AI62" s="2">
-        <v>575.13</v>
+        <v>419</v>
       </c>
       <c r="AJ62" s="2">
-        <v>361.9</v>
+        <v>108</v>
       </c>
       <c r="AK62" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL62" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM62" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>7908816372171</v>
       </c>
@@ -13804,47 +13608,44 @@
       <c r="Z63" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AA63" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB63" s="2">
+      <c r="AA63" s="2">
         <v>25</v>
       </c>
-      <c r="AC63" s="2" t="s">
+      <c r="AB63" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="AC63" s="2">
+        <v>264</v>
+      </c>
       <c r="AD63" s="2">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="AE63" s="2">
-        <v>179</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>187.95</v>
       </c>
       <c r="AG63" s="2">
-        <v>8.9499999999999993</v>
+        <v>575.13</v>
       </c>
       <c r="AH63" s="2">
-        <v>187.95</v>
+        <v>361.9</v>
       </c>
       <c r="AI63" s="2">
-        <v>575.13</v>
+        <v>419</v>
       </c>
       <c r="AJ63" s="2">
-        <v>361.9</v>
+        <v>108</v>
       </c>
       <c r="AK63" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL63" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM63" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>7908816372188</v>
       </c>
@@ -13917,50 +13718,47 @@
       <c r="Z64" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AA64" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB64" s="2">
+      <c r="AA64" s="2">
         <v>25</v>
       </c>
-      <c r="AC64" s="2" t="s">
+      <c r="AB64" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="AC64" s="2">
+        <v>264</v>
+      </c>
       <c r="AD64" s="2">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="AE64" s="2">
-        <v>214</v>
+        <v>10.7</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>224.7</v>
       </c>
       <c r="AG64" s="2">
-        <v>10.7</v>
+        <v>687.58</v>
       </c>
       <c r="AH64" s="2">
-        <v>224.7</v>
+        <v>432.9</v>
       </c>
       <c r="AI64" s="2">
-        <v>687.58</v>
+        <v>419</v>
       </c>
       <c r="AJ64" s="2">
-        <v>432.9</v>
+        <v>108</v>
       </c>
       <c r="AK64" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL64" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM64" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN64" s="2">
         <v>45658</v>
       </c>
-      <c r="AO64" s="2" t="s">
+      <c r="AM64" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>7908816372195</v>
       </c>
@@ -14033,50 +13831,47 @@
       <c r="Z65" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AA65" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB65" s="2">
+      <c r="AA65" s="2">
         <v>25</v>
       </c>
-      <c r="AC65" s="2" t="s">
+      <c r="AB65" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="AC65" s="2">
+        <v>264</v>
+      </c>
       <c r="AD65" s="2">
-        <v>264</v>
+        <v>354.72</v>
       </c>
       <c r="AE65" s="2">
-        <v>354.72</v>
+        <v>17.73</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>372.45</v>
       </c>
       <c r="AG65" s="2">
-        <v>17.73</v>
+        <v>1139.7</v>
       </c>
       <c r="AH65" s="2">
-        <v>372.45</v>
+        <v>717.9</v>
       </c>
       <c r="AI65" s="2">
-        <v>1139.7</v>
+        <v>419</v>
       </c>
       <c r="AJ65" s="2">
-        <v>717.9</v>
+        <v>108</v>
       </c>
       <c r="AK65" s="2">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="AL65" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM65" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN65" s="2">
         <v>45658</v>
       </c>
-      <c r="AO65" s="2" t="s">
+      <c r="AM65" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>7908816372201</v>
       </c>
@@ -14152,47 +13947,44 @@
       <c r="Z66" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AA66" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB66" s="2">
+      <c r="AA66" s="2">
         <v>25</v>
       </c>
-      <c r="AC66" s="2" t="s">
+      <c r="AB66" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="AC66" s="2">
+        <v>264</v>
+      </c>
       <c r="AD66" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AE66" s="2">
-        <v>399</v>
+        <v>19.95</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>418.95</v>
       </c>
       <c r="AG66" s="2">
-        <v>19.95</v>
+        <v>1281.99</v>
       </c>
       <c r="AH66" s="2">
-        <v>418.95</v>
+        <v>807.9</v>
       </c>
       <c r="AI66" s="2">
-        <v>1281.99</v>
+        <v>374</v>
       </c>
       <c r="AJ66" s="2">
-        <v>807.9</v>
+        <v>40</v>
       </c>
       <c r="AK66" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL66" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN66" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>7908816372218</v>
       </c>
@@ -14268,47 +14060,44 @@
       <c r="Z67" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AA67" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB67" s="2">
+      <c r="AA67" s="2">
         <v>25</v>
       </c>
-      <c r="AC67" s="2" t="s">
+      <c r="AB67" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="AC67" s="2">
+        <v>264</v>
+      </c>
       <c r="AD67" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AE67" s="2">
-        <v>399</v>
+        <v>19.95</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>418.95</v>
       </c>
       <c r="AG67" s="2">
-        <v>19.95</v>
+        <v>1281.99</v>
       </c>
       <c r="AH67" s="2">
-        <v>418.95</v>
+        <v>807.9</v>
       </c>
       <c r="AI67" s="2">
-        <v>1281.99</v>
+        <v>374</v>
       </c>
       <c r="AJ67" s="2">
-        <v>807.9</v>
+        <v>40</v>
       </c>
       <c r="AK67" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL67" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN67" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>7908816372225</v>
       </c>
@@ -14381,50 +14170,47 @@
       <c r="Z68" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AA68" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB68" s="2">
+      <c r="AA68" s="2">
         <v>25</v>
       </c>
-      <c r="AC68" s="2" t="s">
+      <c r="AB68" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="AC68" s="2">
+        <v>264</v>
+      </c>
       <c r="AD68" s="2">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="AE68" s="2">
-        <v>578</v>
+        <v>28.9</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>606.9</v>
       </c>
       <c r="AG68" s="2">
-        <v>28.9</v>
+        <v>1857.11</v>
       </c>
       <c r="AH68" s="2">
-        <v>606.9</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="AI68" s="2">
-        <v>1857.11</v>
+        <v>374</v>
       </c>
       <c r="AJ68" s="2">
-        <v>1169.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK68" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL68" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN68" s="2">
         <v>45658</v>
       </c>
-      <c r="AO68" s="2" t="s">
+      <c r="AM68" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>7908816372232</v>
       </c>
@@ -14497,50 +14283,47 @@
       <c r="Z69" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AA69" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB69" s="2">
+      <c r="AA69" s="2">
         <v>25</v>
       </c>
-      <c r="AC69" s="2" t="s">
+      <c r="AB69" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="AC69" s="2">
+        <v>264</v>
+      </c>
       <c r="AD69" s="2">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="AE69" s="2">
-        <v>578</v>
+        <v>28.9</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>606.9</v>
       </c>
       <c r="AG69" s="2">
-        <v>28.9</v>
+        <v>1857.11</v>
       </c>
       <c r="AH69" s="2">
-        <v>606.9</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="AI69" s="2">
-        <v>1857.11</v>
+        <v>374</v>
       </c>
       <c r="AJ69" s="2">
-        <v>1169.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK69" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL69" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN69" s="2">
         <v>45658</v>
       </c>
-      <c r="AO69" s="2" t="s">
+      <c r="AM69" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>7908816372249</v>
       </c>
@@ -14613,50 +14396,47 @@
       <c r="Z70" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AA70" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB70" s="2">
+      <c r="AA70" s="2">
         <v>25</v>
       </c>
-      <c r="AC70" s="2" t="s">
+      <c r="AB70" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="AC70" s="2">
+        <v>264</v>
+      </c>
       <c r="AD70" s="2">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="AE70" s="2">
-        <v>578</v>
+        <v>28.9</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>606.9</v>
       </c>
       <c r="AG70" s="2">
-        <v>28.9</v>
+        <v>1857.11</v>
       </c>
       <c r="AH70" s="2">
-        <v>606.9</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="AI70" s="2">
-        <v>1857.11</v>
+        <v>374</v>
       </c>
       <c r="AJ70" s="2">
-        <v>1169.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK70" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL70" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN70" s="2">
         <v>45658</v>
       </c>
-      <c r="AO70" s="2" t="s">
+      <c r="AM70" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>7908816372256</v>
       </c>
@@ -14729,50 +14509,47 @@
       <c r="Z71" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AA71" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB71" s="2">
+      <c r="AA71" s="2">
         <v>25</v>
       </c>
-      <c r="AC71" s="2" t="s">
+      <c r="AB71" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="AC71" s="2">
+        <v>264</v>
+      </c>
       <c r="AD71" s="2">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="AE71" s="2">
-        <v>578</v>
+        <v>28.9</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>606.9</v>
       </c>
       <c r="AG71" s="2">
-        <v>28.9</v>
+        <v>1857.11</v>
       </c>
       <c r="AH71" s="2">
-        <v>606.9</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="AI71" s="2">
-        <v>1857.11</v>
+        <v>374</v>
       </c>
       <c r="AJ71" s="2">
-        <v>1169.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK71" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL71" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN71" s="2">
         <v>45658</v>
       </c>
-      <c r="AO71" s="2" t="s">
+      <c r="AM71" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>7908816372263</v>
       </c>
@@ -14845,50 +14622,47 @@
       <c r="Z72" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AA72" s="2" t="s">
+      <c r="AA72" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB72" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>264</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>613</v>
+      </c>
+      <c r="AE72" s="2">
+        <v>30.65</v>
+      </c>
+      <c r="AF72" s="2">
+        <v>643.65</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>1969.57</v>
+      </c>
+      <c r="AH72" s="2">
+        <v>1240.9000000000001</v>
+      </c>
+      <c r="AI72" s="2">
         <v>374</v>
       </c>
-      <c r="AB72" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC72" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD72" s="2">
-        <v>264</v>
-      </c>
-      <c r="AE72" s="2">
-        <v>613</v>
-      </c>
-      <c r="AG72" s="2">
-        <v>30.65</v>
-      </c>
-      <c r="AH72" s="2">
-        <v>643.65</v>
-      </c>
-      <c r="AI72" s="2">
-        <v>1969.57</v>
-      </c>
       <c r="AJ72" s="2">
-        <v>1240.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK72" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL72" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN72" s="2">
         <v>36892</v>
       </c>
-      <c r="AO72" s="2" t="s">
+      <c r="AM72" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>7908816372270</v>
       </c>
@@ -14961,50 +14735,47 @@
       <c r="Z73" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AA73" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB73" s="2">
+      <c r="AA73" s="2">
         <v>25</v>
       </c>
-      <c r="AC73" s="2" t="s">
+      <c r="AB73" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="AC73" s="2">
+        <v>264</v>
+      </c>
       <c r="AD73" s="2">
-        <v>264</v>
+        <v>613</v>
       </c>
       <c r="AE73" s="2">
-        <v>613</v>
+        <v>30.65</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>643.65</v>
       </c>
       <c r="AG73" s="2">
-        <v>30.65</v>
+        <v>1969.57</v>
       </c>
       <c r="AH73" s="2">
-        <v>643.65</v>
+        <v>1240.9000000000001</v>
       </c>
       <c r="AI73" s="2">
-        <v>1969.57</v>
+        <v>374</v>
       </c>
       <c r="AJ73" s="2">
-        <v>1240.9000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK73" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL73" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN73" s="2">
         <v>36892</v>
       </c>
-      <c r="AO73" s="2" t="s">
+      <c r="AM73" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>7908816372287</v>
       </c>
@@ -15077,50 +14848,47 @@
       <c r="Z74" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AA74" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB74" s="2">
+      <c r="AA74" s="2">
         <v>25</v>
       </c>
-      <c r="AC74" s="2" t="s">
+      <c r="AB74" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="AC74" s="2">
+        <v>264</v>
+      </c>
       <c r="AD74" s="2">
-        <v>264</v>
+        <v>753.72</v>
       </c>
       <c r="AE74" s="2">
-        <v>753.72</v>
+        <v>37.68</v>
+      </c>
+      <c r="AF74" s="2">
+        <v>791.4</v>
       </c>
       <c r="AG74" s="2">
-        <v>37.68</v>
+        <v>2421.6799999999998</v>
       </c>
       <c r="AH74" s="2">
-        <v>791.4</v>
+        <v>1525.9</v>
       </c>
       <c r="AI74" s="2">
-        <v>2421.6799999999998</v>
+        <v>374</v>
       </c>
       <c r="AJ74" s="2">
-        <v>1525.9</v>
+        <v>40</v>
       </c>
       <c r="AK74" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL74" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN74" s="2">
         <v>36892</v>
       </c>
-      <c r="AO74" s="2" t="s">
+      <c r="AM74" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>7908816372294</v>
       </c>
@@ -15193,50 +14961,47 @@
       <c r="Z75" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AA75" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB75" s="2">
+      <c r="AA75" s="2">
         <v>25</v>
       </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AB75" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="AC75" s="2">
+        <v>264</v>
+      </c>
       <c r="AD75" s="2">
-        <v>264</v>
+        <v>753.72</v>
       </c>
       <c r="AE75" s="2">
-        <v>753.72</v>
+        <v>37.68</v>
+      </c>
+      <c r="AF75" s="2">
+        <v>791.4</v>
       </c>
       <c r="AG75" s="2">
-        <v>37.68</v>
+        <v>2421.6799999999998</v>
       </c>
       <c r="AH75" s="2">
-        <v>791.4</v>
+        <v>1525.9</v>
       </c>
       <c r="AI75" s="2">
-        <v>2421.6799999999998</v>
+        <v>374</v>
       </c>
       <c r="AJ75" s="2">
-        <v>1525.9</v>
+        <v>40</v>
       </c>
       <c r="AK75" s="2">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="AL75" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN75" s="2">
         <v>36892</v>
       </c>
-      <c r="AO75" s="2" t="s">
+      <c r="AM75" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>7908816372300</v>
       </c>
@@ -15312,47 +15077,44 @@
       <c r="Z76" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AA76" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB76" s="2">
+      <c r="AA76" s="2">
         <v>25</v>
       </c>
-      <c r="AC76" s="2" t="s">
+      <c r="AB76" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="AC76" s="2">
+        <v>264</v>
+      </c>
       <c r="AD76" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE76" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG76" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH76" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI76" s="2">
-        <v>816.1</v>
+        <v>393</v>
       </c>
       <c r="AJ76" s="2">
-        <v>513.9</v>
+        <v>115</v>
       </c>
       <c r="AK76" s="2">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="AL76" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM76" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN76" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>7908816372317</v>
       </c>
@@ -15428,47 +15190,44 @@
       <c r="Z77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AA77" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AB77" s="2">
+      <c r="AA77" s="2">
         <v>25</v>
       </c>
-      <c r="AC77" s="2" t="s">
+      <c r="AB77" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="AC77" s="2">
+        <v>264</v>
+      </c>
       <c r="AD77" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE77" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF77" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG77" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH77" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI77" s="2">
-        <v>816.1</v>
+        <v>393</v>
       </c>
       <c r="AJ77" s="2">
-        <v>513.9</v>
+        <v>115</v>
       </c>
       <c r="AK77" s="2">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="AL77" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM77" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN77" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>7908816372324</v>
       </c>
@@ -15541,50 +15300,47 @@
       <c r="Z78" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AA78" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB78" s="2">
+      <c r="AA78" s="2">
         <v>25</v>
       </c>
-      <c r="AC78" s="2" t="s">
+      <c r="AB78" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="AC78" s="2">
+        <v>264</v>
+      </c>
       <c r="AD78" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE78" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG78" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH78" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI78" s="2">
-        <v>816.1</v>
+        <v>393</v>
       </c>
       <c r="AJ78" s="2">
-        <v>513.9</v>
+        <v>115</v>
       </c>
       <c r="AK78" s="2">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="AL78" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO78" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>7908816372331</v>
       </c>
@@ -15657,50 +15413,47 @@
       <c r="Z79" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AA79" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB79" s="2">
+      <c r="AA79" s="2">
         <v>25</v>
       </c>
-      <c r="AC79" s="2" t="s">
+      <c r="AB79" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="AC79" s="2">
+        <v>264</v>
+      </c>
       <c r="AD79" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE79" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG79" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH79" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI79" s="2">
-        <v>816.1</v>
+        <v>393</v>
       </c>
       <c r="AJ79" s="2">
-        <v>513.9</v>
+        <v>115</v>
       </c>
       <c r="AK79" s="2">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="AL79" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN79" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO79" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>7908816372348</v>
       </c>
@@ -15773,50 +15526,47 @@
       <c r="Z80" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB80" s="2">
+      <c r="AA80" s="2">
         <v>25</v>
       </c>
-      <c r="AC80" s="2" t="s">
+      <c r="AB80" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="AC80" s="2">
+        <v>264</v>
+      </c>
       <c r="AD80" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE80" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG80" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH80" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI80" s="2">
-        <v>816.1</v>
+        <v>356</v>
       </c>
       <c r="AJ80" s="2">
-        <v>513.9</v>
+        <v>59</v>
       </c>
       <c r="AK80" s="2">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="AL80" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO80" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>7908816372355</v>
       </c>
@@ -15889,50 +15639,47 @@
       <c r="Z81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AA81" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB81" s="2">
+      <c r="AA81" s="2">
         <v>25</v>
       </c>
-      <c r="AC81" s="2" t="s">
+      <c r="AB81" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="AC81" s="2">
+        <v>264</v>
+      </c>
       <c r="AD81" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE81" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG81" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH81" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI81" s="2">
-        <v>816.1</v>
+        <v>356</v>
       </c>
       <c r="AJ81" s="2">
-        <v>513.9</v>
+        <v>59</v>
       </c>
       <c r="AK81" s="2">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="AL81" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO81" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>7908816372362</v>
       </c>
@@ -16005,50 +15752,47 @@
       <c r="Z82" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB82" s="2">
+      <c r="AA82" s="2">
         <v>25</v>
       </c>
-      <c r="AC82" s="2" t="s">
+      <c r="AB82" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="AC82" s="2">
+        <v>264</v>
+      </c>
       <c r="AD82" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE82" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG82" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH82" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI82" s="2">
-        <v>816.1</v>
+        <v>356</v>
       </c>
       <c r="AJ82" s="2">
-        <v>513.9</v>
+        <v>59</v>
       </c>
       <c r="AK82" s="2">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="AL82" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO82" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>7908816372379</v>
       </c>
@@ -16121,50 +15865,47 @@
       <c r="Z83" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AA83" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB83" s="2">
+      <c r="AA83" s="2">
         <v>25</v>
       </c>
-      <c r="AC83" s="2" t="s">
+      <c r="AB83" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="AC83" s="2">
+        <v>264</v>
+      </c>
       <c r="AD83" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE83" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF83" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG83" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH83" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI83" s="2">
-        <v>816.1</v>
+        <v>356</v>
       </c>
       <c r="AJ83" s="2">
-        <v>513.9</v>
+        <v>59</v>
       </c>
       <c r="AK83" s="2">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="AL83" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="AM83" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO83" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>7908816372386</v>
       </c>
@@ -16237,50 +15978,47 @@
       <c r="Z84" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AA84" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB84" s="2">
+      <c r="AA84" s="2">
         <v>25</v>
       </c>
-      <c r="AC84" s="2" t="s">
+      <c r="AB84" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="AC84" s="2">
+        <v>264</v>
+      </c>
       <c r="AD84" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE84" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF84" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG84" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH84" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI84" s="2">
-        <v>816.1</v>
+        <v>341</v>
       </c>
       <c r="AJ84" s="2">
-        <v>513.9</v>
+        <v>71</v>
       </c>
       <c r="AK84" s="2">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="AL84" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO84" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>7908816372393</v>
       </c>
@@ -16353,46 +16091,43 @@
       <c r="Z85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AA85" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AB85" s="2">
+      <c r="AA85" s="2">
         <v>25</v>
       </c>
-      <c r="AC85" s="2" t="s">
+      <c r="AB85" s="2" t="s">
         <v>432</v>
       </c>
+      <c r="AC85" s="2">
+        <v>264</v>
+      </c>
       <c r="AD85" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AE85" s="2">
-        <v>254</v>
+        <v>12.7</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>266.7</v>
       </c>
       <c r="AG85" s="2">
-        <v>12.7</v>
+        <v>816.1</v>
       </c>
       <c r="AH85" s="2">
-        <v>266.7</v>
+        <v>513.9</v>
       </c>
       <c r="AI85" s="2">
-        <v>816.1</v>
+        <v>341</v>
       </c>
       <c r="AJ85" s="2">
-        <v>513.9</v>
+        <v>71</v>
       </c>
       <c r="AK85" s="2">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="AL85" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO85" s="2">
         <v>7908816372317</v>
       </c>
     </row>

--- a/uploads/Planilha_Online_KITS.xlsx
+++ b/uploads/Planilha_Online_KITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Helton Cardoso\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\AUTOMATIZACAO_CADASTRO\PLANILHAS_ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1577A9A3-D66E-431F-A57A-45D7C8FD1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B08CAF-9869-4006-A28B-26AEE50D257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E3533EE-8A81-4A60-93EF-A94A643EAA99}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="436">
   <si>
     <t>EAN</t>
   </si>
@@ -6401,6 +6401,12 @@
   </si>
   <si>
     <t>7908816371716/7908816371730/7908816371761/7908816371594/7908816371594/7908816371587/7908816371624/7908816359448/7908816359448/7908816352685/7908816352685/7908816371679/7908816371655</t>
+  </si>
+  <si>
+    <t>FRETE</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO</t>
   </si>
 </sst>
 </file>
@@ -6760,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275A5473-6FCF-44AA-86DD-3A44C4A5954D}">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6775,16 +6781,17 @@
     <col min="9" max="9" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="25" width="18.5703125" style="2"/>
     <col min="26" max="26" width="73.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="34" width="18.5703125" style="2"/>
-    <col min="35" max="35" width="26.42578125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="25.7109375" style="2" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="25" style="2" customWidth="1"/>
-    <col min="39" max="39" width="182.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="18.5703125" style="2"/>
+    <col min="27" max="27" width="73.5703125" style="2" customWidth="1"/>
+    <col min="28" max="36" width="18.5703125" style="2"/>
+    <col min="37" max="37" width="26.42578125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="25.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="26.140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="25" style="2" customWidth="1"/>
+    <col min="41" max="41" width="182.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6864,46 +6871,52 @@
         <v>29</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7908816371563</v>
       </c>
@@ -6979,44 +6992,47 @@
       <c r="Z2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2">
         <v>15</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>264</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AE2" s="2">
         <v>108</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AG2" s="2">
         <v>5.4</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2">
         <v>113.4</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>347</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <v>218.9</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AK2" s="2">
         <v>427</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AL2" s="2">
         <v>110</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AM2" s="2">
         <v>176</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AN2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7908816371570</v>
       </c>
@@ -7092,44 +7108,47 @@
       <c r="Z3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="2">
         <v>15</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>264</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AE3" s="2">
         <v>108</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AG3" s="2">
         <v>5.4</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AH3" s="2">
         <v>113.4</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AI3" s="2">
         <v>347</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AJ3" s="2">
         <v>218.9</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AK3" s="2">
         <v>427</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="2">
         <v>110</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AM3" s="2">
         <v>176</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AN3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7908816371587</v>
       </c>
@@ -7205,44 +7224,47 @@
       <c r="Z4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="2">
         <v>15</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>264</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>219</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
         <v>10.95</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2">
         <v>229.95</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>703.65</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <v>442.9</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AK4" s="2">
         <v>427</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AL4" s="2">
         <v>110</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AM4" s="2">
         <v>176</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AN4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7908816371594</v>
       </c>
@@ -7318,44 +7340,47 @@
       <c r="Z5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="2">
         <v>15</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>264</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>149</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>7.45</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <v>156.44999999999999</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>478.74</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AJ5" s="2">
         <v>301.89999999999998</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <v>427</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AL5" s="2">
         <v>110</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AM5" s="2">
         <v>176</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AN5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7908816371600</v>
       </c>
@@ -7431,44 +7456,47 @@
       <c r="Z6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB6" s="2">
         <v>15</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>264</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>149</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AG6" s="2">
         <v>7.45</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AH6" s="2">
         <v>156.44999999999999</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AI6" s="2">
         <v>478.74</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AJ6" s="2">
         <v>301.89999999999998</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AK6" s="2">
         <v>427</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="2">
         <v>110</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AM6" s="2">
         <v>176</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AN6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7908816371617</v>
       </c>
@@ -7544,44 +7572,47 @@
       <c r="Z7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="2">
         <v>15</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>264</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>289</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>14.45</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <v>303.45</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AI7" s="2">
         <v>928.56</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AJ7" s="2">
         <v>584.9</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AK7" s="2">
         <v>427</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AL7" s="2">
         <v>110</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AM7" s="2">
         <v>176</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AN7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7908816371624</v>
       </c>
@@ -7642,44 +7673,47 @@
       <c r="Z8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB8" s="2">
         <v>15</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>264</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>133</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AG8" s="2">
         <v>6.65</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AH8" s="2">
         <v>139.65</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AI8" s="2">
         <v>427.33</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AJ8" s="2">
         <v>268.89999999999998</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AK8" s="2">
         <v>427</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AL8" s="2">
         <v>110</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AM8" s="2">
         <v>176</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AN8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7908816371631</v>
       </c>
@@ -7740,44 +7774,47 @@
       <c r="Z9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="2">
         <v>15</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>264</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AE9" s="2">
         <v>133</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AG9" s="2">
         <v>6.65</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AH9" s="2">
         <v>139.65</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AI9" s="2">
         <v>427.33</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AJ9" s="2">
         <v>268.89999999999998</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AK9" s="2">
         <v>427</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AL9" s="2">
         <v>110</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AM9" s="2">
         <v>176</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AN9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7908816371648</v>
       </c>
@@ -7838,44 +7875,47 @@
       <c r="Z10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" s="2">
         <v>15</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
         <v>264</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AE10" s="2">
         <v>158</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AG10" s="2">
         <v>7.9</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AH10" s="2">
         <v>165.9</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AI10" s="2">
         <v>507.65</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AJ10" s="2">
         <v>319.89999999999998</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AK10" s="2">
         <v>419</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AL10" s="2">
         <v>108</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AM10" s="2">
         <v>176</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AN10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7908816371655</v>
       </c>
@@ -7936,44 +7976,47 @@
       <c r="Z11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" s="2">
         <v>15</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <v>264</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AE11" s="2">
         <v>158</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AG11" s="2">
         <v>7.9</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AH11" s="2">
         <v>165.9</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AI11" s="2">
         <v>507.65</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AJ11" s="2">
         <v>319.89999999999998</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AK11" s="2">
         <v>419</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AL11" s="2">
         <v>108</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AM11" s="2">
         <v>176</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AN11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7908816371662</v>
       </c>
@@ -8049,44 +8092,47 @@
       <c r="Z12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" s="2">
         <v>15</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>264</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AE12" s="2">
         <v>179</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AG12" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AH12" s="2">
         <v>187.95</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AI12" s="2">
         <v>575.13</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AJ12" s="2">
         <v>361.9</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AK12" s="2">
         <v>419</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AL12" s="2">
         <v>108</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AM12" s="2">
         <v>176</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AN12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7908816371679</v>
       </c>
@@ -8162,44 +8208,47 @@
       <c r="Z13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="2">
         <v>15</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <v>264</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>179</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AG13" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AH13" s="2">
         <v>187.95</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AI13" s="2">
         <v>575.13</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AJ13" s="2">
         <v>361.9</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AK13" s="2">
         <v>419</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AL13" s="2">
         <v>108</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AM13" s="2">
         <v>176</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AN13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7908816371686</v>
       </c>
@@ -8275,44 +8324,47 @@
       <c r="Z14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" s="2">
         <v>15</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <v>264</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>244</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AG14" s="2">
         <v>12.2</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AH14" s="2">
         <v>256.2</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AI14" s="2">
         <v>783.97</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AJ14" s="2">
         <v>493.9</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AK14" s="2">
         <v>425</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AL14" s="2">
         <v>107</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AM14" s="2">
         <v>176</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AN14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7908816371693</v>
       </c>
@@ -8388,44 +8440,47 @@
       <c r="Z15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB15" s="2">
         <v>15</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AD15" s="2">
         <v>264</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AE15" s="2">
         <v>244</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AG15" s="2">
         <v>12.2</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AH15" s="2">
         <v>256.2</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AI15" s="2">
         <v>783.97</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AJ15" s="2">
         <v>493.9</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AK15" s="2">
         <v>425</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AL15" s="2">
         <v>107</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AM15" s="2">
         <v>176</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AN15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7908816371709</v>
       </c>
@@ -8501,44 +8556,47 @@
       <c r="Z16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB16" s="2">
         <v>15</v>
       </c>
-      <c r="AB16" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <v>264</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AE16" s="2">
         <v>244</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AG16" s="2">
         <v>12.2</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AH16" s="2">
         <v>256.2</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AI16" s="2">
         <v>783.97</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AJ16" s="2">
         <v>493.9</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AK16" s="2">
         <v>425</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AL16" s="2">
         <v>107</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AM16" s="2">
         <v>176</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AN16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7908816371716</v>
       </c>
@@ -8614,44 +8672,47 @@
       <c r="Z17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB17" s="2">
         <v>15</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
         <v>264</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AE17" s="2">
         <v>282</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AG17" s="2">
         <v>14.1</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AH17" s="2">
         <v>296.10000000000002</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AI17" s="2">
         <v>906.07</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AJ17" s="2">
         <v>570.9</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AK17" s="2">
         <v>425</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AL17" s="2">
         <v>107</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AM17" s="2">
         <v>176</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AN17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7908816371723</v>
       </c>
@@ -8727,44 +8788,47 @@
       <c r="Z18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB18" s="2">
         <v>15</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <v>264</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AE18" s="2">
         <v>296</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AG18" s="2">
         <v>14.8</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AH18" s="2">
         <v>310.8</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AI18" s="2">
         <v>951.05</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AJ18" s="2">
         <v>598.9</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AK18" s="2">
         <v>425</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AL18" s="2">
         <v>107</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AM18" s="2">
         <v>176</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AN18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7908816371730</v>
       </c>
@@ -8840,44 +8904,47 @@
       <c r="Z19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB19" s="2">
         <v>15</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AD19" s="2">
         <v>264</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AE19" s="2">
         <v>296</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AG19" s="2">
         <v>14.8</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AH19" s="2">
         <v>310.8</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AI19" s="2">
         <v>951.05</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AJ19" s="2">
         <v>598.9</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AK19" s="2">
         <v>425</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AL19" s="2">
         <v>107</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AM19" s="2">
         <v>176</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AN19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7908816371747</v>
       </c>
@@ -8953,44 +9020,47 @@
       <c r="Z20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB20" s="2">
         <v>15</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <v>264</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AE20" s="2">
         <v>296</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AG20" s="2">
         <v>14.8</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AH20" s="2">
         <v>310.8</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AI20" s="2">
         <v>951.05</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AJ20" s="2">
         <v>598.9</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AK20" s="2">
         <v>425</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AL20" s="2">
         <v>107</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AM20" s="2">
         <v>176</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AN20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>7908816371754</v>
       </c>
@@ -9066,44 +9136,47 @@
       <c r="Z21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB21" s="2">
         <v>15</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <v>264</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AE21" s="2">
         <v>399</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AG21" s="2">
         <v>19.95</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AH21" s="2">
         <v>418.95</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AI21" s="2">
         <v>1281.99</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AJ21" s="2">
         <v>807.9</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AK21" s="2">
         <v>425</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AL21" s="2">
         <v>107</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AM21" s="2">
         <v>176</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AN21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7908816371761</v>
       </c>
@@ -9179,44 +9252,47 @@
       <c r="Z22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB22" s="2">
         <v>15</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AC22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <v>264</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AE22" s="2">
         <v>399</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AG22" s="2">
         <v>19.95</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AH22" s="2">
         <v>418.95</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AI22" s="2">
         <v>1281.99</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AJ22" s="2">
         <v>807.9</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AK22" s="2">
         <v>425</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AL22" s="2">
         <v>107</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AM22" s="2">
         <v>176</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AN22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>7908816371778</v>
       </c>
@@ -9289,47 +9365,50 @@
       <c r="Z23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB23" s="2">
         <v>15</v>
       </c>
-      <c r="AB23" s="2" t="s">
+      <c r="AC23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23" s="2">
         <v>264</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AE23" s="2">
         <v>977</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AG23" s="2">
         <v>48.85</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AH23" s="2">
         <v>1025.8499999999999</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AI23" s="2">
         <v>3139.1</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AJ23" s="2">
         <v>1977.9</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AK23" s="2">
         <v>374</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AL23" s="2">
         <v>106</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AM23" s="2">
         <v>176</v>
       </c>
-      <c r="AL23" s="2" t="s">
+      <c r="AN23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AO23" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7908816371785</v>
       </c>
@@ -9402,47 +9481,50 @@
       <c r="Z24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB24" s="2">
         <v>15</v>
       </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AC24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24" s="2">
         <v>264</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AE24" s="2">
         <v>977</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AG24" s="2">
         <v>48.85</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AH24" s="2">
         <v>1025.8499999999999</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AI24" s="2">
         <v>3139.1</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AJ24" s="2">
         <v>1977.9</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AK24" s="2">
         <v>374</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AL24" s="2">
         <v>106</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AM24" s="2">
         <v>176</v>
       </c>
-      <c r="AL24" s="2" t="s">
+      <c r="AN24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AM24" s="2" t="s">
+      <c r="AO24" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>7908816371792</v>
       </c>
@@ -9515,47 +9597,50 @@
       <c r="Z25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB25" s="2">
         <v>15</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="AC25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AD25" s="2">
         <v>264</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AE25" s="2">
         <v>977</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AG25" s="2">
         <v>48.85</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AH25" s="2">
         <v>1025.8499999999999</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AI25" s="2">
         <v>3139.1</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AJ25" s="2">
         <v>1977.9</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AK25" s="2">
         <v>374</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AL25" s="2">
         <v>106</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AM25" s="2">
         <v>176</v>
       </c>
-      <c r="AL25" s="2" t="s">
+      <c r="AN25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AM25" s="2" t="s">
+      <c r="AO25" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>7908816371808</v>
       </c>
@@ -9628,47 +9713,50 @@
       <c r="Z26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB26" s="2">
         <v>15</v>
       </c>
-      <c r="AB26" s="2" t="s">
+      <c r="AC26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26" s="2">
         <v>264</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AE26" s="2">
         <v>1167</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AG26" s="2">
         <v>58.35</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AH26" s="2">
         <v>1225.3499999999999</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AI26" s="2">
         <v>3749.57</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AJ26" s="2">
         <v>2361.9</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AK26" s="2">
         <v>374</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AL26" s="2">
         <v>106</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AM26" s="2">
         <v>176</v>
       </c>
-      <c r="AL26" s="2" t="s">
+      <c r="AN26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AM26" s="2" t="s">
+      <c r="AO26" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7908816371815</v>
       </c>
@@ -9741,47 +9829,50 @@
       <c r="Z27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB27" s="2">
         <v>15</v>
       </c>
-      <c r="AB27" s="2" t="s">
+      <c r="AC27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27" s="2">
         <v>264</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>1012</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AG27" s="2">
         <v>50.6</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AH27" s="2">
         <v>1062.5999999999999</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AI27" s="2">
         <v>3251.56</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AJ27" s="2">
         <v>2047.9</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AK27" s="2">
         <v>374</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AL27" s="2">
         <v>106</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AM27" s="2">
         <v>176</v>
       </c>
-      <c r="AL27" s="2" t="s">
+      <c r="AN27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AM27" s="2" t="s">
+      <c r="AO27" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7908816371822</v>
       </c>
@@ -9854,47 +9945,50 @@
       <c r="Z28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB28" s="2">
         <v>15</v>
       </c>
-      <c r="AB28" s="2" t="s">
+      <c r="AC28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28" s="2">
         <v>264</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AE28" s="2">
         <v>2552</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AG28" s="2">
         <v>127.6</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AH28" s="2">
         <v>2679.6</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AI28" s="2">
         <v>8199.58</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AJ28" s="2">
         <v>5165.8999999999996</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AK28" s="2">
         <v>374</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AL28" s="2">
         <v>106</v>
       </c>
-      <c r="AK28" s="2">
+      <c r="AM28" s="2">
         <v>176</v>
       </c>
-      <c r="AL28" s="2" t="s">
+      <c r="AN28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AM28" s="2" t="s">
+      <c r="AO28" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7908816371839</v>
       </c>
@@ -9955,44 +10049,47 @@
       <c r="Z29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB29" s="2">
         <v>25</v>
       </c>
-      <c r="AB29" s="2" t="s">
+      <c r="AC29" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29" s="2">
         <v>264</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AE29" s="2">
         <v>149</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AG29" s="2">
         <v>7.45</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AH29" s="2">
         <v>156.44999999999999</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AI29" s="2">
         <v>478.74</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AJ29" s="2">
         <v>301.89999999999998</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AK29" s="2">
         <v>419</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AL29" s="2">
         <v>108</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="AM29" s="2">
         <v>176</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AN29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>7908816371846</v>
       </c>
@@ -10053,44 +10150,47 @@
       <c r="Z30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB30" s="2">
         <v>25</v>
       </c>
-      <c r="AB30" s="2" t="s">
+      <c r="AC30" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30" s="2">
         <v>264</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
         <v>149</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AG30" s="2">
         <v>7.45</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AH30" s="2">
         <v>156.44999999999999</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AI30" s="2">
         <v>478.74</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AJ30" s="2">
         <v>301.89999999999998</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AK30" s="2">
         <v>419</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AL30" s="2">
         <v>108</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AM30" s="2">
         <v>176</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AN30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7908816371853</v>
       </c>
@@ -10151,44 +10251,47 @@
       <c r="Z31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB31" s="2">
         <v>25</v>
       </c>
-      <c r="AB31" s="2" t="s">
+      <c r="AC31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31" s="2">
         <v>264</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AE31" s="2">
         <v>149</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AG31" s="2">
         <v>7.45</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AH31" s="2">
         <v>156.44999999999999</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AI31" s="2">
         <v>478.74</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AJ31" s="2">
         <v>301.89999999999998</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AK31" s="2">
         <v>419</v>
       </c>
-      <c r="AJ31" s="2">
+      <c r="AL31" s="2">
         <v>108</v>
       </c>
-      <c r="AK31" s="2">
+      <c r="AM31" s="2">
         <v>176</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AN31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7908816371860</v>
       </c>
@@ -10264,44 +10367,47 @@
       <c r="Z32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AA32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB32" s="2">
         <v>25</v>
       </c>
-      <c r="AB32" s="2" t="s">
+      <c r="AC32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
         <v>264</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>325</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AG32" s="2">
         <v>16.25</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AH32" s="2">
         <v>341.25</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AI32" s="2">
         <v>1044.23</v>
       </c>
-      <c r="AH32" s="2">
+      <c r="AJ32" s="2">
         <v>657.9</v>
       </c>
-      <c r="AI32" s="2">
+      <c r="AK32" s="2">
         <v>374</v>
       </c>
-      <c r="AJ32" s="2">
+      <c r="AL32" s="2">
         <v>40</v>
       </c>
-      <c r="AK32" s="2">
+      <c r="AM32" s="2">
         <v>176</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AN32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7908816371877</v>
       </c>
@@ -10377,44 +10483,47 @@
       <c r="Z33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB33" s="2">
         <v>25</v>
       </c>
-      <c r="AB33" s="2" t="s">
+      <c r="AC33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33" s="2">
         <v>264</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AE33" s="2">
         <v>325</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AG33" s="2">
         <v>16.25</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AH33" s="2">
         <v>341.25</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AI33" s="2">
         <v>1044.23</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AJ33" s="2">
         <v>657.9</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AK33" s="2">
         <v>374</v>
       </c>
-      <c r="AJ33" s="2">
+      <c r="AL33" s="2">
         <v>40</v>
       </c>
-      <c r="AK33" s="2">
+      <c r="AM33" s="2">
         <v>176</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AN33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>7908816371884</v>
       </c>
@@ -10490,44 +10599,47 @@
       <c r="Z34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB34" s="2">
         <v>25</v>
       </c>
-      <c r="AB34" s="2" t="s">
+      <c r="AC34" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34" s="2">
         <v>264</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AE34" s="2">
         <v>325</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AG34" s="2">
         <v>16.25</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AH34" s="2">
         <v>341.25</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AI34" s="2">
         <v>1044.23</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AJ34" s="2">
         <v>657.9</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AK34" s="2">
         <v>374</v>
       </c>
-      <c r="AJ34" s="2">
+      <c r="AL34" s="2">
         <v>40</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AM34" s="2">
         <v>176</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AN34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7908816371891</v>
       </c>
@@ -10600,47 +10712,50 @@
       <c r="Z35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB35" s="2">
         <v>25</v>
       </c>
-      <c r="AB35" s="2" t="s">
+      <c r="AC35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35" s="2">
         <v>264</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
         <v>474</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AG35" s="2">
         <v>23.7</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AH35" s="2">
         <v>497.7</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AI35" s="2">
         <v>1522.96</v>
       </c>
-      <c r="AH35" s="2">
+      <c r="AJ35" s="2">
         <v>958.9</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AK35" s="2">
         <v>374</v>
       </c>
-      <c r="AJ35" s="2">
+      <c r="AL35" s="2">
         <v>40</v>
       </c>
-      <c r="AK35" s="2">
+      <c r="AM35" s="2">
         <v>176</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AN35" s="2">
         <v>1</v>
       </c>
-      <c r="AM35" s="2" t="s">
+      <c r="AO35" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>7908816371907</v>
       </c>
@@ -10713,47 +10828,50 @@
       <c r="Z36" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB36" s="2">
         <v>25</v>
       </c>
-      <c r="AB36" s="2" t="s">
+      <c r="AC36" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36" s="2">
         <v>264</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
         <v>474</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AG36" s="2">
         <v>23.7</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AH36" s="2">
         <v>497.7</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AI36" s="2">
         <v>1522.96</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AJ36" s="2">
         <v>958.9</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AK36" s="2">
         <v>374</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AL36" s="2">
         <v>40</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AM36" s="2">
         <v>176</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AN36" s="2">
         <v>1</v>
       </c>
-      <c r="AM36" s="2" t="s">
+      <c r="AO36" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>7908816371914</v>
       </c>
@@ -10826,47 +10944,50 @@
       <c r="Z37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB37" s="2">
         <v>25</v>
       </c>
-      <c r="AB37" s="2" t="s">
+      <c r="AC37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
         <v>264</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AE37" s="2">
         <v>474</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AG37" s="2">
         <v>23.7</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AH37" s="2">
         <v>497.7</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AI37" s="2">
         <v>1522.96</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AJ37" s="2">
         <v>958.9</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AK37" s="2">
         <v>374</v>
       </c>
-      <c r="AJ37" s="2">
+      <c r="AL37" s="2">
         <v>40</v>
       </c>
-      <c r="AK37" s="2">
+      <c r="AM37" s="2">
         <v>176</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AN37" s="2">
         <v>1</v>
       </c>
-      <c r="AM37" s="2" t="s">
+      <c r="AO37" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>7908816371921</v>
       </c>
@@ -10927,44 +11048,47 @@
       <c r="Z38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB38" s="2">
         <v>25</v>
       </c>
-      <c r="AB38" s="2" t="s">
+      <c r="AC38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>264</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>142</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>7.1</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AH38" s="2">
         <v>149.1</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AI38" s="2">
         <v>456.25</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="AJ38" s="2">
         <v>286.89999999999998</v>
       </c>
-      <c r="AI38" s="2">
+      <c r="AK38" s="2">
         <v>419</v>
       </c>
-      <c r="AJ38" s="2">
+      <c r="AL38" s="2">
         <v>108</v>
       </c>
-      <c r="AK38" s="2">
+      <c r="AM38" s="2">
         <v>176</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AN38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>7908816371938</v>
       </c>
@@ -11025,44 +11149,47 @@
       <c r="Z39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB39" s="2">
         <v>25</v>
       </c>
-      <c r="AB39" s="2" t="s">
+      <c r="AC39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39" s="2">
         <v>264</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AE39" s="2">
         <v>142</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AG39" s="2">
         <v>7.1</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AH39" s="2">
         <v>149.1</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AI39" s="2">
         <v>456.25</v>
       </c>
-      <c r="AH39" s="2">
+      <c r="AJ39" s="2">
         <v>286.89999999999998</v>
       </c>
-      <c r="AI39" s="2">
+      <c r="AK39" s="2">
         <v>419</v>
       </c>
-      <c r="AJ39" s="2">
+      <c r="AL39" s="2">
         <v>108</v>
       </c>
-      <c r="AK39" s="2">
+      <c r="AM39" s="2">
         <v>176</v>
       </c>
-      <c r="AL39" s="2">
+      <c r="AN39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7908816371945</v>
       </c>
@@ -11138,44 +11265,47 @@
       <c r="Z40" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB40" s="2">
         <v>25</v>
       </c>
-      <c r="AB40" s="2" t="s">
+      <c r="AC40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AD40" s="2">
         <v>264</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AE40" s="2">
         <v>328</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AG40" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AH40" s="2">
         <v>344.4</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AI40" s="2">
         <v>1053.8599999999999</v>
       </c>
-      <c r="AH40" s="2">
+      <c r="AJ40" s="2">
         <v>663.9</v>
       </c>
-      <c r="AI40" s="2">
+      <c r="AK40" s="2">
         <v>374</v>
       </c>
-      <c r="AJ40" s="2">
+      <c r="AL40" s="2">
         <v>40</v>
       </c>
-      <c r="AK40" s="2">
+      <c r="AM40" s="2">
         <v>176</v>
       </c>
-      <c r="AL40" s="2">
+      <c r="AN40" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7908816371952</v>
       </c>
@@ -11251,44 +11381,47 @@
       <c r="Z41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB41" s="2">
         <v>25</v>
       </c>
-      <c r="AB41" s="2" t="s">
+      <c r="AC41" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AD41" s="2">
         <v>264</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AE41" s="2">
         <v>328</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AG41" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AH41" s="2">
         <v>344.4</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AI41" s="2">
         <v>1053.8599999999999</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AJ41" s="2">
         <v>663.9</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AK41" s="2">
         <v>374</v>
       </c>
-      <c r="AJ41" s="2">
+      <c r="AL41" s="2">
         <v>40</v>
       </c>
-      <c r="AK41" s="2">
+      <c r="AM41" s="2">
         <v>176</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AN41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7908816371969</v>
       </c>
@@ -11361,44 +11494,47 @@
       <c r="Z42" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB42" s="2">
         <v>25</v>
       </c>
-      <c r="AB42" s="2" t="s">
+      <c r="AC42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AD42" s="2">
         <v>264</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AE42" s="2">
         <v>470</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AG42" s="2">
         <v>23.5</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AH42" s="2">
         <v>493.5</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AI42" s="2">
         <v>1510.11</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AJ42" s="2">
         <v>950.9</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AK42" s="2">
         <v>374</v>
       </c>
-      <c r="AJ42" s="2">
+      <c r="AL42" s="2">
         <v>40</v>
       </c>
-      <c r="AK42" s="2">
+      <c r="AM42" s="2">
         <v>176</v>
       </c>
-      <c r="AM42" s="2" t="s">
+      <c r="AO42" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>7908816371976</v>
       </c>
@@ -11471,44 +11607,47 @@
       <c r="Z43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB43" s="2">
         <v>25</v>
       </c>
-      <c r="AB43" s="2" t="s">
+      <c r="AC43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AD43" s="2">
         <v>264</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AE43" s="2">
         <v>470</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AG43" s="2">
         <v>23.5</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AH43" s="2">
         <v>493.5</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AI43" s="2">
         <v>1510.11</v>
       </c>
-      <c r="AH43" s="2">
+      <c r="AJ43" s="2">
         <v>950.9</v>
       </c>
-      <c r="AI43" s="2">
+      <c r="AK43" s="2">
         <v>374</v>
       </c>
-      <c r="AJ43" s="2">
+      <c r="AL43" s="2">
         <v>40</v>
       </c>
-      <c r="AK43" s="2">
+      <c r="AM43" s="2">
         <v>176</v>
       </c>
-      <c r="AM43" s="2" t="s">
+      <c r="AO43" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>7908816371983</v>
       </c>
@@ -11584,44 +11723,47 @@
       <c r="Z44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB44" s="2">
         <v>25</v>
       </c>
-      <c r="AB44" s="2" t="s">
+      <c r="AC44" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AD44" s="2">
         <v>264</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AE44" s="2">
         <v>356</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AG44" s="2">
         <v>17.8</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AH44" s="2">
         <v>373.8</v>
       </c>
-      <c r="AG44" s="2">
+      <c r="AI44" s="2">
         <v>1143.83</v>
       </c>
-      <c r="AH44" s="2">
+      <c r="AJ44" s="2">
         <v>720.9</v>
       </c>
-      <c r="AI44" s="2">
+      <c r="AK44" s="2">
         <v>420</v>
       </c>
-      <c r="AJ44" s="2">
+      <c r="AL44" s="2">
         <v>40</v>
       </c>
-      <c r="AK44" s="2">
+      <c r="AM44" s="2">
         <v>176</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AN44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>7908816371990</v>
       </c>
@@ -11697,44 +11839,47 @@
       <c r="Z45" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AA45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB45" s="2">
         <v>25</v>
       </c>
-      <c r="AB45" s="2" t="s">
+      <c r="AC45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AD45" s="2">
         <v>264</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AE45" s="2">
         <v>341</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AG45" s="2">
         <v>17.05</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AH45" s="2">
         <v>358.05</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AI45" s="2">
         <v>1095.6300000000001</v>
       </c>
-      <c r="AH45" s="2">
+      <c r="AJ45" s="2">
         <v>689.9</v>
       </c>
-      <c r="AI45" s="2">
+      <c r="AK45" s="2">
         <v>420</v>
       </c>
-      <c r="AJ45" s="2">
+      <c r="AL45" s="2">
         <v>40</v>
       </c>
-      <c r="AK45" s="2">
+      <c r="AM45" s="2">
         <v>176</v>
       </c>
-      <c r="AL45" s="2">
+      <c r="AN45" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>7908816372003</v>
       </c>
@@ -11810,44 +11955,47 @@
       <c r="Z46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB46" s="2">
         <v>25</v>
       </c>
-      <c r="AB46" s="2" t="s">
+      <c r="AC46" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AD46" s="2">
         <v>264</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AE46" s="2">
         <v>341</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AG46" s="2">
         <v>17.05</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AH46" s="2">
         <v>358.05</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="AI46" s="2">
         <v>1095.6300000000001</v>
       </c>
-      <c r="AH46" s="2">
+      <c r="AJ46" s="2">
         <v>689.9</v>
       </c>
-      <c r="AI46" s="2">
+      <c r="AK46" s="2">
         <v>420</v>
       </c>
-      <c r="AJ46" s="2">
+      <c r="AL46" s="2">
         <v>40</v>
       </c>
-      <c r="AK46" s="2">
+      <c r="AM46" s="2">
         <v>176</v>
       </c>
-      <c r="AL46" s="2">
+      <c r="AN46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>7908816372010</v>
       </c>
@@ -11923,44 +12071,47 @@
       <c r="Z47" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB47" s="2">
         <v>25</v>
       </c>
-      <c r="AB47" s="2" t="s">
+      <c r="AC47" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AD47" s="2">
         <v>264</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AE47" s="2">
         <v>449</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AG47" s="2">
         <v>22.45</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AH47" s="2">
         <v>471.45</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AI47" s="2">
         <v>1442.64</v>
       </c>
-      <c r="AH47" s="2">
+      <c r="AJ47" s="2">
         <v>908.9</v>
       </c>
-      <c r="AI47" s="2">
+      <c r="AK47" s="2">
         <v>420</v>
       </c>
-      <c r="AJ47" s="2">
+      <c r="AL47" s="2">
         <v>40</v>
       </c>
-      <c r="AK47" s="2">
+      <c r="AM47" s="2">
         <v>176</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AN47" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>7908816372027</v>
       </c>
@@ -12036,44 +12187,47 @@
       <c r="Z48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AA48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB48" s="2">
         <v>25</v>
       </c>
-      <c r="AB48" s="2" t="s">
+      <c r="AC48" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AD48" s="2">
         <v>264</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AE48" s="2">
         <v>449</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AG48" s="2">
         <v>22.45</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AH48" s="2">
         <v>471.45</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="AI48" s="2">
         <v>1442.64</v>
       </c>
-      <c r="AH48" s="2">
+      <c r="AJ48" s="2">
         <v>908.9</v>
       </c>
-      <c r="AI48" s="2">
+      <c r="AK48" s="2">
         <v>420</v>
       </c>
-      <c r="AJ48" s="2">
+      <c r="AL48" s="2">
         <v>40</v>
       </c>
-      <c r="AK48" s="2">
+      <c r="AM48" s="2">
         <v>176</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AN48" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>7908816372034</v>
       </c>
@@ -12149,44 +12303,47 @@
       <c r="Z49" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB49" s="2">
         <v>25</v>
       </c>
-      <c r="AB49" s="2" t="s">
+      <c r="AC49" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AD49" s="2">
         <v>264</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AE49" s="2">
         <v>288</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AG49" s="2">
         <v>14.4</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AH49" s="2">
         <v>302.39999999999998</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AI49" s="2">
         <v>925.34</v>
       </c>
-      <c r="AH49" s="2">
+      <c r="AJ49" s="2">
         <v>582.9</v>
       </c>
-      <c r="AI49" s="2">
+      <c r="AK49" s="2">
         <v>420</v>
       </c>
-      <c r="AJ49" s="2">
+      <c r="AL49" s="2">
         <v>40</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AM49" s="2">
         <v>176</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AN49" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>7908816372041</v>
       </c>
@@ -12262,44 +12419,47 @@
       <c r="Z50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB50" s="2">
         <v>25</v>
       </c>
-      <c r="AB50" s="2" t="s">
+      <c r="AC50" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AD50" s="2">
         <v>264</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AE50" s="2">
         <v>288</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AG50" s="2">
         <v>14.4</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AH50" s="2">
         <v>302.39999999999998</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AI50" s="2">
         <v>925.34</v>
       </c>
-      <c r="AH50" s="2">
+      <c r="AJ50" s="2">
         <v>582.9</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AK50" s="2">
         <v>420</v>
       </c>
-      <c r="AJ50" s="2">
+      <c r="AL50" s="2">
         <v>40</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AM50" s="2">
         <v>176</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AN50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>7908816372058</v>
       </c>
@@ -12360,44 +12520,47 @@
       <c r="Z51" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AA51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB51" s="2">
         <v>25</v>
       </c>
-      <c r="AB51" s="2" t="s">
+      <c r="AC51" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AD51" s="2">
         <v>264</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AE51" s="2">
         <v>236</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AG51" s="2">
         <v>11.8</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AH51" s="2">
         <v>247.8</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AI51" s="2">
         <v>758.27</v>
       </c>
-      <c r="AH51" s="2">
+      <c r="AJ51" s="2">
         <v>477.9</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AK51" s="2">
         <v>420</v>
       </c>
-      <c r="AJ51" s="2">
+      <c r="AL51" s="2">
         <v>40</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AM51" s="2">
         <v>176</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AN51" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>7908816372065</v>
       </c>
@@ -12458,44 +12621,47 @@
       <c r="Z52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB52" s="2">
         <v>25</v>
       </c>
-      <c r="AB52" s="2" t="s">
+      <c r="AC52" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AD52" s="2">
         <v>264</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AE52" s="2">
         <v>236</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AG52" s="2">
         <v>11.8</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AH52" s="2">
         <v>247.8</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AI52" s="2">
         <v>758.27</v>
       </c>
-      <c r="AH52" s="2">
+      <c r="AJ52" s="2">
         <v>477.9</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AK52" s="2">
         <v>420</v>
       </c>
-      <c r="AJ52" s="2">
+      <c r="AL52" s="2">
         <v>40</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AM52" s="2">
         <v>176</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AN52" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>7908816372072</v>
       </c>
@@ -12556,44 +12722,47 @@
       <c r="Z53" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AA53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB53" s="2">
         <v>25</v>
       </c>
-      <c r="AB53" s="2" t="s">
+      <c r="AC53" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AD53" s="2">
         <v>264</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AE53" s="2">
         <v>318</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AG53" s="2">
         <v>15.9</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AH53" s="2">
         <v>333.9</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AI53" s="2">
         <v>1021.73</v>
       </c>
-      <c r="AH53" s="2">
+      <c r="AJ53" s="2">
         <v>643.9</v>
       </c>
-      <c r="AI53" s="2">
+      <c r="AK53" s="2">
         <v>420</v>
       </c>
-      <c r="AJ53" s="2">
+      <c r="AL53" s="2">
         <v>40</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AM53" s="2">
         <v>176</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AN53" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>7908816372089</v>
       </c>
@@ -12654,44 +12823,47 @@
       <c r="Z54" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AA54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB54" s="2">
         <v>25</v>
       </c>
-      <c r="AB54" s="2" t="s">
+      <c r="AC54" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AC54" s="2">
+      <c r="AD54" s="2">
         <v>264</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AE54" s="2">
         <v>318</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AG54" s="2">
         <v>15.9</v>
       </c>
-      <c r="AF54" s="2">
+      <c r="AH54" s="2">
         <v>333.9</v>
       </c>
-      <c r="AG54" s="2">
+      <c r="AI54" s="2">
         <v>1021.73</v>
       </c>
-      <c r="AH54" s="2">
+      <c r="AJ54" s="2">
         <v>643.9</v>
       </c>
-      <c r="AI54" s="2">
+      <c r="AK54" s="2">
         <v>420</v>
       </c>
-      <c r="AJ54" s="2">
+      <c r="AL54" s="2">
         <v>40</v>
       </c>
-      <c r="AK54" s="2">
+      <c r="AM54" s="2">
         <v>176</v>
       </c>
-      <c r="AL54" s="2">
+      <c r="AN54" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>7908816372096</v>
       </c>
@@ -12767,41 +12939,44 @@
       <c r="Z55" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AA55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB55" s="2">
         <v>25</v>
       </c>
-      <c r="AB55" s="2" t="s">
+      <c r="AC55" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AC55" s="2">
+      <c r="AD55" s="2">
         <v>264</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AE55" s="2">
         <v>183</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AG55" s="2">
         <v>9.15</v>
       </c>
-      <c r="AF55" s="2">
+      <c r="AH55" s="2">
         <v>192.15</v>
       </c>
-      <c r="AG55" s="2">
+      <c r="AI55" s="2">
         <v>587.98</v>
       </c>
-      <c r="AH55" s="2">
+      <c r="AJ55" s="2">
         <v>369.9</v>
       </c>
-      <c r="AI55" s="2">
+      <c r="AK55" s="2">
         <v>419</v>
       </c>
-      <c r="AJ55" s="2">
+      <c r="AL55" s="2">
         <v>108</v>
       </c>
-      <c r="AK55" s="2">
+      <c r="AM55" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>7908816372102</v>
       </c>
@@ -12877,41 +13052,44 @@
       <c r="Z56" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB56" s="2">
         <v>25</v>
       </c>
-      <c r="AB56" s="2" t="s">
+      <c r="AC56" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AC56" s="2">
+      <c r="AD56" s="2">
         <v>264</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AE56" s="2">
         <v>183</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AG56" s="2">
         <v>9.15</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="AH56" s="2">
         <v>192.15</v>
       </c>
-      <c r="AG56" s="2">
+      <c r="AI56" s="2">
         <v>587.98</v>
       </c>
-      <c r="AH56" s="2">
+      <c r="AJ56" s="2">
         <v>369.9</v>
       </c>
-      <c r="AI56" s="2">
+      <c r="AK56" s="2">
         <v>419</v>
       </c>
-      <c r="AJ56" s="2">
+      <c r="AL56" s="2">
         <v>108</v>
       </c>
-      <c r="AK56" s="2">
+      <c r="AM56" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>7908816372119</v>
       </c>
@@ -12987,41 +13165,44 @@
       <c r="Z57" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AA57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB57" s="2">
         <v>25</v>
       </c>
-      <c r="AB57" s="2" t="s">
+      <c r="AC57" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AC57" s="2">
+      <c r="AD57" s="2">
         <v>264</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AE57" s="2">
         <v>369</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AG57" s="2">
         <v>18.45</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AH57" s="2">
         <v>387.45</v>
       </c>
-      <c r="AG57" s="2">
+      <c r="AI57" s="2">
         <v>1185.5999999999999</v>
       </c>
-      <c r="AH57" s="2">
+      <c r="AJ57" s="2">
         <v>746.9</v>
       </c>
-      <c r="AI57" s="2">
+      <c r="AK57" s="2">
         <v>374</v>
       </c>
-      <c r="AJ57" s="2">
+      <c r="AL57" s="2">
         <v>40</v>
       </c>
-      <c r="AK57" s="2">
+      <c r="AM57" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>7908816372126</v>
       </c>
@@ -13097,41 +13278,44 @@
       <c r="Z58" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AA58" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB58" s="2">
         <v>25</v>
       </c>
-      <c r="AB58" s="2" t="s">
+      <c r="AC58" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AD58" s="2">
         <v>264</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AE58" s="2">
         <v>369</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AG58" s="2">
         <v>18.45</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AH58" s="2">
         <v>387.45</v>
       </c>
-      <c r="AG58" s="2">
+      <c r="AI58" s="2">
         <v>1185.5999999999999</v>
       </c>
-      <c r="AH58" s="2">
+      <c r="AJ58" s="2">
         <v>746.9</v>
       </c>
-      <c r="AI58" s="2">
+      <c r="AK58" s="2">
         <v>374</v>
       </c>
-      <c r="AJ58" s="2">
+      <c r="AL58" s="2">
         <v>40</v>
       </c>
-      <c r="AK58" s="2">
+      <c r="AM58" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>7908816372133</v>
       </c>
@@ -13204,44 +13388,47 @@
       <c r="Z59" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AA59" s="2">
+      <c r="AA59" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB59" s="2">
         <v>25</v>
       </c>
-      <c r="AB59" s="2" t="s">
+      <c r="AC59" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AC59" s="2">
+      <c r="AD59" s="2">
         <v>264</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AE59" s="2">
         <v>552</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AG59" s="2">
         <v>27.6</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AH59" s="2">
         <v>579.6</v>
       </c>
-      <c r="AG59" s="2">
+      <c r="AI59" s="2">
         <v>1773.58</v>
       </c>
-      <c r="AH59" s="2">
+      <c r="AJ59" s="2">
         <v>1116.9000000000001</v>
       </c>
-      <c r="AI59" s="2">
+      <c r="AK59" s="2">
         <v>374</v>
       </c>
-      <c r="AJ59" s="2">
+      <c r="AL59" s="2">
         <v>40</v>
       </c>
-      <c r="AK59" s="2">
+      <c r="AM59" s="2">
         <v>176</v>
       </c>
-      <c r="AM59" s="2" t="s">
+      <c r="AO59" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>7908816372140</v>
       </c>
@@ -13314,44 +13501,47 @@
       <c r="Z60" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AA60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB60" s="2">
         <v>25</v>
       </c>
-      <c r="AB60" s="2" t="s">
+      <c r="AC60" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AC60" s="2">
+      <c r="AD60" s="2">
         <v>264</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AE60" s="2">
         <v>552</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AG60" s="2">
         <v>27.6</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="AH60" s="2">
         <v>579.6</v>
       </c>
-      <c r="AG60" s="2">
+      <c r="AI60" s="2">
         <v>1773.58</v>
       </c>
-      <c r="AH60" s="2">
+      <c r="AJ60" s="2">
         <v>1116.9000000000001</v>
       </c>
-      <c r="AI60" s="2">
+      <c r="AK60" s="2">
         <v>374</v>
       </c>
-      <c r="AJ60" s="2">
+      <c r="AL60" s="2">
         <v>40</v>
       </c>
-      <c r="AK60" s="2">
+      <c r="AM60" s="2">
         <v>176</v>
       </c>
-      <c r="AM60" s="2" t="s">
+      <c r="AO60" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>7908816372157</v>
       </c>
@@ -13406,35 +13596,38 @@
       <c r="Z61" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AA61" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB61" s="2">
         <v>25</v>
       </c>
-      <c r="AB61" s="2" t="s">
+      <c r="AC61" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AC61" s="2">
+      <c r="AD61" s="2">
         <v>264</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AE61" s="2">
         <v>35</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AG61" s="2">
         <v>1.75</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AH61" s="2">
         <v>36.75</v>
       </c>
-      <c r="AG61" s="2">
+      <c r="AI61" s="2">
         <v>112.46</v>
       </c>
-      <c r="AH61" s="2">
+      <c r="AJ61" s="2">
         <v>70.900000000000006</v>
       </c>
-      <c r="AL61" s="2">
+      <c r="AN61" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7908816372164</v>
       </c>
@@ -13510,44 +13703,47 @@
       <c r="Z62" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AA62" s="2">
+      <c r="AA62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB62" s="2">
         <v>25</v>
       </c>
-      <c r="AB62" s="2" t="s">
+      <c r="AC62" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AC62" s="2">
+      <c r="AD62" s="2">
         <v>264</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AE62" s="2">
         <v>179</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AG62" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AH62" s="2">
         <v>187.95</v>
       </c>
-      <c r="AG62" s="2">
+      <c r="AI62" s="2">
         <v>575.13</v>
       </c>
-      <c r="AH62" s="2">
+      <c r="AJ62" s="2">
         <v>361.9</v>
       </c>
-      <c r="AI62" s="2">
+      <c r="AK62" s="2">
         <v>419</v>
       </c>
-      <c r="AJ62" s="2">
+      <c r="AL62" s="2">
         <v>108</v>
       </c>
-      <c r="AK62" s="2">
+      <c r="AM62" s="2">
         <v>176</v>
       </c>
-      <c r="AL62" s="2">
+      <c r="AN62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>7908816372171</v>
       </c>
@@ -13608,44 +13804,47 @@
       <c r="Z63" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AA63" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB63" s="2">
         <v>25</v>
       </c>
-      <c r="AB63" s="2" t="s">
+      <c r="AC63" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AC63" s="2">
+      <c r="AD63" s="2">
         <v>264</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AE63" s="2">
         <v>179</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AG63" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AH63" s="2">
         <v>187.95</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AI63" s="2">
         <v>575.13</v>
       </c>
-      <c r="AH63" s="2">
+      <c r="AJ63" s="2">
         <v>361.9</v>
       </c>
-      <c r="AI63" s="2">
+      <c r="AK63" s="2">
         <v>419</v>
       </c>
-      <c r="AJ63" s="2">
+      <c r="AL63" s="2">
         <v>108</v>
       </c>
-      <c r="AK63" s="2">
+      <c r="AM63" s="2">
         <v>176</v>
       </c>
-      <c r="AL63" s="2">
+      <c r="AN63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>7908816372188</v>
       </c>
@@ -13718,47 +13917,50 @@
       <c r="Z64" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AA64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB64" s="2">
         <v>25</v>
       </c>
-      <c r="AB64" s="2" t="s">
+      <c r="AC64" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AC64" s="2">
+      <c r="AD64" s="2">
         <v>264</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AE64" s="2">
         <v>214</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AG64" s="2">
         <v>10.7</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AH64" s="2">
         <v>224.7</v>
       </c>
-      <c r="AG64" s="2">
+      <c r="AI64" s="2">
         <v>687.58</v>
       </c>
-      <c r="AH64" s="2">
+      <c r="AJ64" s="2">
         <v>432.9</v>
       </c>
-      <c r="AI64" s="2">
+      <c r="AK64" s="2">
         <v>419</v>
       </c>
-      <c r="AJ64" s="2">
+      <c r="AL64" s="2">
         <v>108</v>
       </c>
-      <c r="AK64" s="2">
+      <c r="AM64" s="2">
         <v>176</v>
       </c>
-      <c r="AL64" s="2">
+      <c r="AN64" s="2">
         <v>45658</v>
       </c>
-      <c r="AM64" s="2" t="s">
+      <c r="AO64" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>7908816372195</v>
       </c>
@@ -13831,47 +14033,50 @@
       <c r="Z65" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AA65" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB65" s="2">
         <v>25</v>
       </c>
-      <c r="AB65" s="2" t="s">
+      <c r="AC65" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AC65" s="2">
+      <c r="AD65" s="2">
         <v>264</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AE65" s="2">
         <v>354.72</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AG65" s="2">
         <v>17.73</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="AH65" s="2">
         <v>372.45</v>
       </c>
-      <c r="AG65" s="2">
+      <c r="AI65" s="2">
         <v>1139.7</v>
       </c>
-      <c r="AH65" s="2">
+      <c r="AJ65" s="2">
         <v>717.9</v>
       </c>
-      <c r="AI65" s="2">
+      <c r="AK65" s="2">
         <v>419</v>
       </c>
-      <c r="AJ65" s="2">
+      <c r="AL65" s="2">
         <v>108</v>
       </c>
-      <c r="AK65" s="2">
+      <c r="AM65" s="2">
         <v>176</v>
       </c>
-      <c r="AL65" s="2">
+      <c r="AN65" s="2">
         <v>45658</v>
       </c>
-      <c r="AM65" s="2" t="s">
+      <c r="AO65" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>7908816372201</v>
       </c>
@@ -13947,44 +14152,47 @@
       <c r="Z66" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB66" s="2">
         <v>25</v>
       </c>
-      <c r="AB66" s="2" t="s">
+      <c r="AC66" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AD66" s="2">
         <v>264</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AE66" s="2">
         <v>399</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AG66" s="2">
         <v>19.95</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AH66" s="2">
         <v>418.95</v>
       </c>
-      <c r="AG66" s="2">
+      <c r="AI66" s="2">
         <v>1281.99</v>
       </c>
-      <c r="AH66" s="2">
+      <c r="AJ66" s="2">
         <v>807.9</v>
       </c>
-      <c r="AI66" s="2">
+      <c r="AK66" s="2">
         <v>374</v>
       </c>
-      <c r="AJ66" s="2">
+      <c r="AL66" s="2">
         <v>40</v>
       </c>
-      <c r="AK66" s="2">
+      <c r="AM66" s="2">
         <v>176</v>
       </c>
-      <c r="AL66" s="2">
+      <c r="AN66" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>7908816372218</v>
       </c>
@@ -14060,44 +14268,47 @@
       <c r="Z67" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AA67" s="2">
+      <c r="AA67" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB67" s="2">
         <v>25</v>
       </c>
-      <c r="AB67" s="2" t="s">
+      <c r="AC67" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AD67" s="2">
         <v>264</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AE67" s="2">
         <v>399</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AG67" s="2">
         <v>19.95</v>
       </c>
-      <c r="AF67" s="2">
+      <c r="AH67" s="2">
         <v>418.95</v>
       </c>
-      <c r="AG67" s="2">
+      <c r="AI67" s="2">
         <v>1281.99</v>
       </c>
-      <c r="AH67" s="2">
+      <c r="AJ67" s="2">
         <v>807.9</v>
       </c>
-      <c r="AI67" s="2">
+      <c r="AK67" s="2">
         <v>374</v>
       </c>
-      <c r="AJ67" s="2">
+      <c r="AL67" s="2">
         <v>40</v>
       </c>
-      <c r="AK67" s="2">
+      <c r="AM67" s="2">
         <v>176</v>
       </c>
-      <c r="AL67" s="2">
+      <c r="AN67" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>7908816372225</v>
       </c>
@@ -14170,47 +14381,50 @@
       <c r="Z68" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AA68" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB68" s="2">
         <v>25</v>
       </c>
-      <c r="AB68" s="2" t="s">
+      <c r="AC68" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AC68" s="2">
+      <c r="AD68" s="2">
         <v>264</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AE68" s="2">
         <v>578</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AG68" s="2">
         <v>28.9</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AH68" s="2">
         <v>606.9</v>
       </c>
-      <c r="AG68" s="2">
+      <c r="AI68" s="2">
         <v>1857.11</v>
       </c>
-      <c r="AH68" s="2">
+      <c r="AJ68" s="2">
         <v>1169.9000000000001</v>
       </c>
-      <c r="AI68" s="2">
+      <c r="AK68" s="2">
         <v>374</v>
       </c>
-      <c r="AJ68" s="2">
+      <c r="AL68" s="2">
         <v>40</v>
       </c>
-      <c r="AK68" s="2">
+      <c r="AM68" s="2">
         <v>176</v>
       </c>
-      <c r="AL68" s="2">
+      <c r="AN68" s="2">
         <v>45658</v>
       </c>
-      <c r="AM68" s="2" t="s">
+      <c r="AO68" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>7908816372232</v>
       </c>
@@ -14283,47 +14497,50 @@
       <c r="Z69" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AA69" s="2">
+      <c r="AA69" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB69" s="2">
         <v>25</v>
       </c>
-      <c r="AB69" s="2" t="s">
+      <c r="AC69" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AC69" s="2">
+      <c r="AD69" s="2">
         <v>264</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AE69" s="2">
         <v>578</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AG69" s="2">
         <v>28.9</v>
       </c>
-      <c r="AF69" s="2">
+      <c r="AH69" s="2">
         <v>606.9</v>
       </c>
-      <c r="AG69" s="2">
+      <c r="AI69" s="2">
         <v>1857.11</v>
       </c>
-      <c r="AH69" s="2">
+      <c r="AJ69" s="2">
         <v>1169.9000000000001</v>
       </c>
-      <c r="AI69" s="2">
+      <c r="AK69" s="2">
         <v>374</v>
       </c>
-      <c r="AJ69" s="2">
+      <c r="AL69" s="2">
         <v>40</v>
       </c>
-      <c r="AK69" s="2">
+      <c r="AM69" s="2">
         <v>176</v>
       </c>
-      <c r="AL69" s="2">
+      <c r="AN69" s="2">
         <v>45658</v>
       </c>
-      <c r="AM69" s="2" t="s">
+      <c r="AO69" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>7908816372249</v>
       </c>
@@ -14396,47 +14613,50 @@
       <c r="Z70" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AA70" s="2">
+      <c r="AA70" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB70" s="2">
         <v>25</v>
       </c>
-      <c r="AB70" s="2" t="s">
+      <c r="AC70" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AC70" s="2">
+      <c r="AD70" s="2">
         <v>264</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AE70" s="2">
         <v>578</v>
       </c>
-      <c r="AE70" s="2">
+      <c r="AG70" s="2">
         <v>28.9</v>
       </c>
-      <c r="AF70" s="2">
+      <c r="AH70" s="2">
         <v>606.9</v>
       </c>
-      <c r="AG70" s="2">
+      <c r="AI70" s="2">
         <v>1857.11</v>
       </c>
-      <c r="AH70" s="2">
+      <c r="AJ70" s="2">
         <v>1169.9000000000001</v>
       </c>
-      <c r="AI70" s="2">
+      <c r="AK70" s="2">
         <v>374</v>
       </c>
-      <c r="AJ70" s="2">
+      <c r="AL70" s="2">
         <v>40</v>
       </c>
-      <c r="AK70" s="2">
+      <c r="AM70" s="2">
         <v>176</v>
       </c>
-      <c r="AL70" s="2">
+      <c r="AN70" s="2">
         <v>45658</v>
       </c>
-      <c r="AM70" s="2" t="s">
+      <c r="AO70" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>7908816372256</v>
       </c>
@@ -14509,47 +14729,50 @@
       <c r="Z71" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AA71" s="2">
+      <c r="AA71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB71" s="2">
         <v>25</v>
       </c>
-      <c r="AB71" s="2" t="s">
+      <c r="AC71" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AC71" s="2">
+      <c r="AD71" s="2">
         <v>264</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AE71" s="2">
         <v>578</v>
       </c>
-      <c r="AE71" s="2">
+      <c r="AG71" s="2">
         <v>28.9</v>
       </c>
-      <c r="AF71" s="2">
+      <c r="AH71" s="2">
         <v>606.9</v>
       </c>
-      <c r="AG71" s="2">
+      <c r="AI71" s="2">
         <v>1857.11</v>
       </c>
-      <c r="AH71" s="2">
+      <c r="AJ71" s="2">
         <v>1169.9000000000001</v>
       </c>
-      <c r="AI71" s="2">
+      <c r="AK71" s="2">
         <v>374</v>
       </c>
-      <c r="AJ71" s="2">
+      <c r="AL71" s="2">
         <v>40</v>
       </c>
-      <c r="AK71" s="2">
+      <c r="AM71" s="2">
         <v>176</v>
       </c>
-      <c r="AL71" s="2">
+      <c r="AN71" s="2">
         <v>45658</v>
       </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AO71" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>7908816372263</v>
       </c>
@@ -14622,47 +14845,50 @@
       <c r="Z72" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AA72" s="2">
+      <c r="AA72" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB72" s="2">
         <v>25</v>
       </c>
-      <c r="AB72" s="2" t="s">
+      <c r="AC72" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AC72" s="2">
+      <c r="AD72" s="2">
         <v>264</v>
       </c>
-      <c r="AD72" s="2">
+      <c r="AE72" s="2">
         <v>613</v>
       </c>
-      <c r="AE72" s="2">
+      <c r="AG72" s="2">
         <v>30.65</v>
       </c>
-      <c r="AF72" s="2">
+      <c r="AH72" s="2">
         <v>643.65</v>
       </c>
-      <c r="AG72" s="2">
+      <c r="AI72" s="2">
         <v>1969.57</v>
       </c>
-      <c r="AH72" s="2">
+      <c r="AJ72" s="2">
         <v>1240.9000000000001</v>
       </c>
-      <c r="AI72" s="2">
+      <c r="AK72" s="2">
         <v>374</v>
       </c>
-      <c r="AJ72" s="2">
+      <c r="AL72" s="2">
         <v>40</v>
       </c>
-      <c r="AK72" s="2">
+      <c r="AM72" s="2">
         <v>176</v>
       </c>
-      <c r="AL72" s="2">
+      <c r="AN72" s="2">
         <v>36892</v>
       </c>
-      <c r="AM72" s="2" t="s">
+      <c r="AO72" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>7908816372270</v>
       </c>
@@ -14735,47 +14961,50 @@
       <c r="Z73" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AA73" s="2">
+      <c r="AA73" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB73" s="2">
         <v>25</v>
       </c>
-      <c r="AB73" s="2" t="s">
+      <c r="AC73" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AC73" s="2">
+      <c r="AD73" s="2">
         <v>264</v>
       </c>
-      <c r="AD73" s="2">
+      <c r="AE73" s="2">
         <v>613</v>
       </c>
-      <c r="AE73" s="2">
+      <c r="AG73" s="2">
         <v>30.65</v>
       </c>
-      <c r="AF73" s="2">
+      <c r="AH73" s="2">
         <v>643.65</v>
       </c>
-      <c r="AG73" s="2">
+      <c r="AI73" s="2">
         <v>1969.57</v>
       </c>
-      <c r="AH73" s="2">
+      <c r="AJ73" s="2">
         <v>1240.9000000000001</v>
       </c>
-      <c r="AI73" s="2">
+      <c r="AK73" s="2">
         <v>374</v>
       </c>
-      <c r="AJ73" s="2">
+      <c r="AL73" s="2">
         <v>40</v>
       </c>
-      <c r="AK73" s="2">
+      <c r="AM73" s="2">
         <v>176</v>
       </c>
-      <c r="AL73" s="2">
+      <c r="AN73" s="2">
         <v>36892</v>
       </c>
-      <c r="AM73" s="2" t="s">
+      <c r="AO73" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>7908816372287</v>
       </c>
@@ -14848,47 +15077,50 @@
       <c r="Z74" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AA74" s="2">
+      <c r="AA74" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB74" s="2">
         <v>25</v>
       </c>
-      <c r="AB74" s="2" t="s">
+      <c r="AC74" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AC74" s="2">
+      <c r="AD74" s="2">
         <v>264</v>
       </c>
-      <c r="AD74" s="2">
+      <c r="AE74" s="2">
         <v>753.72</v>
       </c>
-      <c r="AE74" s="2">
+      <c r="AG74" s="2">
         <v>37.68</v>
       </c>
-      <c r="AF74" s="2">
+      <c r="AH74" s="2">
         <v>791.4</v>
       </c>
-      <c r="AG74" s="2">
+      <c r="AI74" s="2">
         <v>2421.6799999999998</v>
       </c>
-      <c r="AH74" s="2">
+      <c r="AJ74" s="2">
         <v>1525.9</v>
       </c>
-      <c r="AI74" s="2">
+      <c r="AK74" s="2">
         <v>374</v>
       </c>
-      <c r="AJ74" s="2">
+      <c r="AL74" s="2">
         <v>40</v>
       </c>
-      <c r="AK74" s="2">
+      <c r="AM74" s="2">
         <v>176</v>
       </c>
-      <c r="AL74" s="2">
+      <c r="AN74" s="2">
         <v>36892</v>
       </c>
-      <c r="AM74" s="2" t="s">
+      <c r="AO74" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>7908816372294</v>
       </c>
@@ -14961,47 +15193,50 @@
       <c r="Z75" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AA75" s="2">
+      <c r="AA75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB75" s="2">
         <v>25</v>
       </c>
-      <c r="AB75" s="2" t="s">
+      <c r="AC75" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="AC75" s="2">
+      <c r="AD75" s="2">
         <v>264</v>
       </c>
-      <c r="AD75" s="2">
+      <c r="AE75" s="2">
         <v>753.72</v>
       </c>
-      <c r="AE75" s="2">
+      <c r="AG75" s="2">
         <v>37.68</v>
       </c>
-      <c r="AF75" s="2">
+      <c r="AH75" s="2">
         <v>791.4</v>
       </c>
-      <c r="AG75" s="2">
+      <c r="AI75" s="2">
         <v>2421.6799999999998</v>
       </c>
-      <c r="AH75" s="2">
+      <c r="AJ75" s="2">
         <v>1525.9</v>
       </c>
-      <c r="AI75" s="2">
+      <c r="AK75" s="2">
         <v>374</v>
       </c>
-      <c r="AJ75" s="2">
+      <c r="AL75" s="2">
         <v>40</v>
       </c>
-      <c r="AK75" s="2">
+      <c r="AM75" s="2">
         <v>176</v>
       </c>
-      <c r="AL75" s="2">
+      <c r="AN75" s="2">
         <v>36892</v>
       </c>
-      <c r="AM75" s="2" t="s">
+      <c r="AO75" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>7908816372300</v>
       </c>
@@ -15077,44 +15312,47 @@
       <c r="Z76" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AA76" s="2">
+      <c r="AA76" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB76" s="2">
         <v>25</v>
       </c>
-      <c r="AB76" s="2" t="s">
+      <c r="AC76" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="AC76" s="2">
+      <c r="AD76" s="2">
         <v>264</v>
       </c>
-      <c r="AD76" s="2">
+      <c r="AE76" s="2">
         <v>254</v>
       </c>
-      <c r="AE76" s="2">
+      <c r="AG76" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF76" s="2">
+      <c r="AH76" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG76" s="2">
+      <c r="AI76" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH76" s="2">
+      <c r="AJ76" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI76" s="2">
+      <c r="AK76" s="2">
         <v>393</v>
       </c>
-      <c r="AJ76" s="2">
+      <c r="AL76" s="2">
         <v>115</v>
       </c>
-      <c r="AK76" s="2">
+      <c r="AM76" s="2">
         <v>176</v>
       </c>
-      <c r="AL76" s="2">
+      <c r="AN76" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>7908816372317</v>
       </c>
@@ -15190,44 +15428,47 @@
       <c r="Z77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AA77" s="2">
+      <c r="AA77" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB77" s="2">
         <v>25</v>
       </c>
-      <c r="AB77" s="2" t="s">
+      <c r="AC77" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AC77" s="2">
+      <c r="AD77" s="2">
         <v>264</v>
       </c>
-      <c r="AD77" s="2">
+      <c r="AE77" s="2">
         <v>254</v>
       </c>
-      <c r="AE77" s="2">
+      <c r="AG77" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF77" s="2">
+      <c r="AH77" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG77" s="2">
+      <c r="AI77" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH77" s="2">
+      <c r="AJ77" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI77" s="2">
+      <c r="AK77" s="2">
         <v>393</v>
       </c>
-      <c r="AJ77" s="2">
+      <c r="AL77" s="2">
         <v>115</v>
       </c>
-      <c r="AK77" s="2">
+      <c r="AM77" s="2">
         <v>176</v>
       </c>
-      <c r="AL77" s="2">
+      <c r="AN77" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>7908816372324</v>
       </c>
@@ -15300,47 +15541,50 @@
       <c r="Z78" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AA78" s="2">
+      <c r="AA78" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB78" s="2">
         <v>25</v>
       </c>
-      <c r="AB78" s="2" t="s">
+      <c r="AC78" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AC78" s="2">
+      <c r="AD78" s="2">
         <v>264</v>
       </c>
-      <c r="AD78" s="2">
+      <c r="AE78" s="2">
         <v>254</v>
       </c>
-      <c r="AE78" s="2">
+      <c r="AG78" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF78" s="2">
+      <c r="AH78" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG78" s="2">
+      <c r="AI78" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH78" s="2">
+      <c r="AJ78" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI78" s="2">
+      <c r="AK78" s="2">
         <v>393</v>
       </c>
-      <c r="AJ78" s="2">
+      <c r="AL78" s="2">
         <v>115</v>
       </c>
-      <c r="AK78" s="2">
+      <c r="AM78" s="2">
         <v>176</v>
       </c>
-      <c r="AL78" s="2">
+      <c r="AN78" s="2">
         <v>1</v>
       </c>
-      <c r="AM78" s="2">
+      <c r="AO78" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>7908816372331</v>
       </c>
@@ -15413,47 +15657,50 @@
       <c r="Z79" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="AA79" s="2">
+      <c r="AA79" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB79" s="2">
         <v>25</v>
       </c>
-      <c r="AB79" s="2" t="s">
+      <c r="AC79" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AC79" s="2">
+      <c r="AD79" s="2">
         <v>264</v>
       </c>
-      <c r="AD79" s="2">
+      <c r="AE79" s="2">
         <v>254</v>
       </c>
-      <c r="AE79" s="2">
+      <c r="AG79" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF79" s="2">
+      <c r="AH79" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG79" s="2">
+      <c r="AI79" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH79" s="2">
+      <c r="AJ79" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI79" s="2">
+      <c r="AK79" s="2">
         <v>393</v>
       </c>
-      <c r="AJ79" s="2">
+      <c r="AL79" s="2">
         <v>115</v>
       </c>
-      <c r="AK79" s="2">
+      <c r="AM79" s="2">
         <v>176</v>
       </c>
-      <c r="AL79" s="2">
+      <c r="AN79" s="2">
         <v>1</v>
       </c>
-      <c r="AM79" s="2">
+      <c r="AO79" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>7908816372348</v>
       </c>
@@ -15526,47 +15773,50 @@
       <c r="Z80" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AA80" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB80" s="2">
         <v>25</v>
       </c>
-      <c r="AB80" s="2" t="s">
+      <c r="AC80" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>264</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>254</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AG80" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AH80" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG80" s="2">
+      <c r="AI80" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH80" s="2">
+      <c r="AJ80" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI80" s="2">
+      <c r="AK80" s="2">
         <v>356</v>
       </c>
-      <c r="AJ80" s="2">
+      <c r="AL80" s="2">
         <v>59</v>
       </c>
-      <c r="AK80" s="2">
+      <c r="AM80" s="2">
         <v>176</v>
       </c>
-      <c r="AL80" s="2">
+      <c r="AN80" s="2">
         <v>1</v>
       </c>
-      <c r="AM80" s="2">
+      <c r="AO80" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>7908816372355</v>
       </c>
@@ -15639,47 +15889,50 @@
       <c r="Z81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AA81" s="2">
+      <c r="AA81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB81" s="2">
         <v>25</v>
       </c>
-      <c r="AB81" s="2" t="s">
+      <c r="AC81" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AC81" s="2">
+      <c r="AD81" s="2">
         <v>264</v>
       </c>
-      <c r="AD81" s="2">
+      <c r="AE81" s="2">
         <v>254</v>
       </c>
-      <c r="AE81" s="2">
+      <c r="AG81" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF81" s="2">
+      <c r="AH81" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG81" s="2">
+      <c r="AI81" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH81" s="2">
+      <c r="AJ81" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI81" s="2">
+      <c r="AK81" s="2">
         <v>356</v>
       </c>
-      <c r="AJ81" s="2">
+      <c r="AL81" s="2">
         <v>59</v>
       </c>
-      <c r="AK81" s="2">
+      <c r="AM81" s="2">
         <v>176</v>
       </c>
-      <c r="AL81" s="2">
+      <c r="AN81" s="2">
         <v>1</v>
       </c>
-      <c r="AM81" s="2">
+      <c r="AO81" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>7908816372362</v>
       </c>
@@ -15752,47 +16005,50 @@
       <c r="Z82" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" s="2">
+      <c r="AA82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB82" s="2">
         <v>25</v>
       </c>
-      <c r="AB82" s="2" t="s">
+      <c r="AC82" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AC82" s="2">
+      <c r="AD82" s="2">
         <v>264</v>
       </c>
-      <c r="AD82" s="2">
+      <c r="AE82" s="2">
         <v>254</v>
       </c>
-      <c r="AE82" s="2">
+      <c r="AG82" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF82" s="2">
+      <c r="AH82" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG82" s="2">
+      <c r="AI82" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH82" s="2">
+      <c r="AJ82" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI82" s="2">
+      <c r="AK82" s="2">
         <v>356</v>
       </c>
-      <c r="AJ82" s="2">
+      <c r="AL82" s="2">
         <v>59</v>
       </c>
-      <c r="AK82" s="2">
+      <c r="AM82" s="2">
         <v>176</v>
       </c>
-      <c r="AL82" s="2">
+      <c r="AN82" s="2">
         <v>1</v>
       </c>
-      <c r="AM82" s="2">
+      <c r="AO82" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>7908816372379</v>
       </c>
@@ -15865,47 +16121,50 @@
       <c r="Z83" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AA83" s="2">
+      <c r="AA83" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB83" s="2">
         <v>25</v>
       </c>
-      <c r="AB83" s="2" t="s">
+      <c r="AC83" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AD83" s="2">
         <v>264</v>
       </c>
-      <c r="AD83" s="2">
+      <c r="AE83" s="2">
         <v>254</v>
       </c>
-      <c r="AE83" s="2">
+      <c r="AG83" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF83" s="2">
+      <c r="AH83" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG83" s="2">
+      <c r="AI83" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH83" s="2">
+      <c r="AJ83" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI83" s="2">
+      <c r="AK83" s="2">
         <v>356</v>
       </c>
-      <c r="AJ83" s="2">
+      <c r="AL83" s="2">
         <v>59</v>
       </c>
-      <c r="AK83" s="2">
+      <c r="AM83" s="2">
         <v>176</v>
       </c>
-      <c r="AL83" s="2">
+      <c r="AN83" s="2">
         <v>1</v>
       </c>
-      <c r="AM83" s="2">
+      <c r="AO83" s="2">
         <v>7908816372317</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>7908816372386</v>
       </c>
@@ -15978,47 +16237,50 @@
       <c r="Z84" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AA84" s="2">
+      <c r="AA84" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB84" s="2">
         <v>25</v>
       </c>
-      <c r="AB84" s="2" t="s">
+      <c r="AC84" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC84" s="2">
+      <c r="AD84" s="2">
         <v>264</v>
       </c>
-      <c r="AD84" s="2">
+      <c r="AE84" s="2">
         <v>254</v>
       </c>
-      <c r="AE84" s="2">
+      <c r="AG84" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF84" s="2">
+      <c r="AH84" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG84" s="2">
+      <c r="AI84" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH84" s="2">
+      <c r="AJ84" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI84" s="2">
+      <c r="AK84" s="2">
         <v>341</v>
       </c>
-      <c r="AJ84" s="2">
+      <c r="AL84" s="2">
         <v>71</v>
       </c>
-      <c r="AK84" s="2">
+      <c r="AM84" s="2">
         <v>176</v>
       </c>
-      <c r="AL84" s="2">
+      <c r="AN84" s="2">
         <v>1</v>
       </c>
-      <c r="AM84" s="2">
+      <c r="AO84" s="2">
         <v>7908816372300</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>7908816372393</v>
       </c>
@@ -16091,43 +16353,46 @@
       <c r="Z85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AA85" s="2">
+      <c r="AA85" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB85" s="2">
         <v>25</v>
       </c>
-      <c r="AB85" s="2" t="s">
+      <c r="AC85" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AC85" s="2">
+      <c r="AD85" s="2">
         <v>264</v>
       </c>
-      <c r="AD85" s="2">
+      <c r="AE85" s="2">
         <v>254</v>
       </c>
-      <c r="AE85" s="2">
+      <c r="AG85" s="2">
         <v>12.7</v>
       </c>
-      <c r="AF85" s="2">
+      <c r="AH85" s="2">
         <v>266.7</v>
       </c>
-      <c r="AG85" s="2">
+      <c r="AI85" s="2">
         <v>816.1</v>
       </c>
-      <c r="AH85" s="2">
+      <c r="AJ85" s="2">
         <v>513.9</v>
       </c>
-      <c r="AI85" s="2">
+      <c r="AK85" s="2">
         <v>341</v>
       </c>
-      <c r="AJ85" s="2">
+      <c r="AL85" s="2">
         <v>71</v>
       </c>
-      <c r="AK85" s="2">
+      <c r="AM85" s="2">
         <v>176</v>
       </c>
-      <c r="AL85" s="2">
+      <c r="AN85" s="2">
         <v>1</v>
       </c>
-      <c r="AM85" s="2">
+      <c r="AO85" s="2">
         <v>7908816372317</v>
       </c>
     </row>
